--- a/datamining/final_data/sorted2006_nltk.xlsx
+++ b/datamining/final_data/sorted2006_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AKN2"/>
+  <dimension ref="A1:AJC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,72 +447,72 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>editor</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>editor</t>
+          <t>card</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>card</t>
+          <t>report</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>research</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>field</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>field</t>
+          <t>children</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>education</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>untitled</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>teachers</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>teachers</t>
+          <t>bullying</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>untitled</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>bullying</t>
+          <t>smart</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -522,127 +522,127 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>school</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>smart</t>
+          <t>high</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>science</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>being</t>
+          <t>counseling</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>instructional</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>science</t>
+          <t>program</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>counseling</t>
+          <t>intelligences</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>instructional</t>
+          <t>'s</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>learners</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>intelligences</t>
+          <t>questionnaire</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>questionnaire</t>
+          <t>nondiscriminatory</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>nondiscriminatory</t>
+          <t>handbook</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>learners</t>
+          <t>innovation</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>handbook</t>
+          <t>international</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>innovation</t>
+          <t>boys</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>international</t>
+          <t>symposium</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>'s</t>
+          <t>nagc</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>ideation</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>symposium</t>
+          <t>classes</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>nagc</t>
+          <t>assessment</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>boys</t>
+          <t>fast-paced</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>assessment</t>
+          <t>failure</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>classes</t>
+          <t>bullied</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>ideation</t>
+          <t>perfectionism</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>fast-paced</t>
+          <t>practices</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
@@ -652,732 +652,732 @@
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>failure</t>
+          <t>suicide</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>practices</t>
+          <t>development</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>perfectionism</t>
+          <t>fraternity</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>suicide</t>
+          <t>university</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>bullied</t>
+          <t>discrepancies</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>study</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>beholder</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>fraternity</t>
+          <t>student</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>discrepancies</t>
+          <t>eyes</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>diversity</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
+          <t>males</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>issues</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
           <t>reading</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>areas</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>males</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>beholder</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>needs</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>diversity</t>
+          <t>grade</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>eyes</t>
+          <t>yogi</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>issues</t>
+          <t>berra</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>needs</t>
+          <t>chevy</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
+          <t>truck</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
           <t>achievement</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>yogi</t>
-        </is>
-      </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>smith</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>chevy</t>
+          <t>wealth</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>berra</t>
+          <t>philosophical</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>grade</t>
+          <t>multiple</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>nations</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>companion</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>attachment</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
           <t>perceived</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>multiple</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>attachment</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>differences</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>attributional</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>strategies</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>attributional</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>wealth</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>smith</t>
+          <t>use</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>philosophical</t>
+          <t>educational</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>nations</t>
+          <t>levels</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>companion</t>
+          <t>higher</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>adam</t>
+          <t>girls</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>project</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>general</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>educational</t>
+          <t>style</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>personality</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>higher</t>
+          <t>used</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>style</t>
+          <t>diverse</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>diverse</t>
+          <t>cultures</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>levels</t>
+          <t>wisc-iii</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>used</t>
+          <t>psychological</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>cultures</t>
+          <t>interests</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>goals</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>interests</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>personality</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>psychological</t>
+          <t>may</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>curriculum</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>girls</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>goals</t>
+          <t>language</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>arts</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>wisc-iii</t>
+          <t>findings</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>strategy</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>strategic</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>years</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>arts</t>
+          <t>types</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>results</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>language</t>
+          <t>article</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>findings</t>
+          <t>high-ability</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>curriculum</t>
+          <t>practice</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>strategic</t>
+          <t>evaluation</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>strategy</t>
+          <t>choices</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>among</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>high-ability</t>
+          <t>data</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>practice</t>
+          <t>many</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>types</t>
+          <t>related</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>dr.</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>evaluation</t>
+          <t>associated</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>results</t>
+          <t>kinds</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>many</t>
+          <t>implications</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>associated</t>
+          <t>analysis</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>dr.</t>
+          <t>content</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>kinds</t>
+          <t>concerns</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>implications</t>
+          <t>point</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>choices</t>
+          <t>examined</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>model</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>significant</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>one</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>related</t>
+          <t>researchers</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>content</t>
+          <t>readers</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>concerns</t>
+          <t>perceptions</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>analysis</t>
+          <t>preferences</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>point</t>
+          <t>revised</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>examined</t>
+          <t>interviews</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>researchers</t>
+          <t>identified</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>perceptions</t>
+          <t>found</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>significant</t>
+          <t>well-being</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>satisfaction</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>also</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>readers</t>
+          <t>middle</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>found</t>
+          <t>developed</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>identified</t>
+          <t>bully</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>preferences</t>
+          <t>mathematics</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>revised</t>
+          <t>improved</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>interviews</t>
+          <t>william</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>well-being</t>
+          <t>units</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>satisfaction</t>
+          <t>likely</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>developed</t>
+          <t>three</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>bully</t>
+          <t>low-income</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>mathematics</t>
+          <t>mary</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>mary</t>
+          <t>parenting</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>low-income</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>improved</t>
+          <t>different</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>middle</t>
+          <t>scale</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>units</t>
+          <t>schools</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>william</t>
+          <t>two</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>discussed</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>different</t>
+          <t>center</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>likely</t>
+          <t>population</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>parenting</t>
+          <t>limitations</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>environment</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>verbal-performance</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>scale</t>
+          <t>wechsler</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>lsi</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>persistence</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>persistence</t>
+          <t>thoughts</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>lsi</t>
+          <t>including</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>environment</t>
+          <t>paper</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>limitations</t>
+          <t>explore</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>verbal-performance</t>
+          <t>intelligence</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>wechsler</t>
+          <t>larger</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>discussed</t>
+          <t>would</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>population</t>
+          <t>well</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>cognitive</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>well</t>
+          <t>prescribed</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>including</t>
+          <t>microgenetic</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>would</t>
+          <t>half</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>cognitive</t>
+          <t>average-performing</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>schools</t>
+          <t>average-ability</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>larger</t>
+          <t>presented</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>paper</t>
+          <t>described</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>microgenetic</t>
+          <t>major</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>average-performing</t>
+          <t>kind</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>average-ability</t>
+          <t>using</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>half</t>
+          <t>materials</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>prescribed</t>
+          <t>planning</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>major</t>
+          <t>methods</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
@@ -1387,2767 +1387,2767 @@
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>presented</t>
+          <t>structure</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>explore</t>
+          <t>regarding</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>planning</t>
+          <t>included</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>described</t>
+          <t>tao</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>using</t>
+          <t>across</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>methods</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>thoughts</t>
+          <t>set</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>structure</t>
+          <t>terence</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>materials</t>
+          <t>survey</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>terry</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>intelligence</t>
+          <t>enhanced</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>programs</t>
+          <t>tailored</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
+          <t>smpy</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>working</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>author</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>academically</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>key</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>adolescents</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>acedemic</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>life</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>korea</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>attending</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>prevalence</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>experienced</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>effects</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>bullies</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="GW1" s="1" t="inlineStr">
-        <is>
-          <t>acedemic</t>
-        </is>
-      </c>
-      <c r="GX1" s="1" t="inlineStr">
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>lenhard</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>lenny</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>districts</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>effectively</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
         <is>
           <t>several</t>
         </is>
       </c>
-      <c r="GY1" s="1" t="inlineStr">
-        <is>
-          <t>enhanced</t>
-        </is>
-      </c>
-      <c r="GZ1" s="1" t="inlineStr">
-        <is>
-          <t>key</t>
-        </is>
-      </c>
-      <c r="HA1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
-      <c r="HB1" s="1" t="inlineStr">
-        <is>
-          <t>adolescents</t>
-        </is>
-      </c>
-      <c r="HC1" s="1" t="inlineStr">
-        <is>
-          <t>included</t>
-        </is>
-      </c>
-      <c r="HD1" s="1" t="inlineStr">
-        <is>
-          <t>districts</t>
-        </is>
-      </c>
-      <c r="HE1" s="1" t="inlineStr">
-        <is>
-          <t>regarding</t>
-        </is>
-      </c>
-      <c r="HF1" s="1" t="inlineStr">
-        <is>
-          <t>kind</t>
-        </is>
-      </c>
-      <c r="HG1" s="1" t="inlineStr">
-        <is>
-          <t>working</t>
-        </is>
-      </c>
-      <c r="HH1" s="1" t="inlineStr">
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>combination</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>ablest</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>met</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>ng</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>prodigies</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
         <is>
           <t>important</t>
         </is>
       </c>
-      <c r="HI1" s="1" t="inlineStr">
-        <is>
-          <t>academically</t>
-        </is>
-      </c>
-      <c r="HJ1" s="1" t="inlineStr">
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>models</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>greek</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>culture</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>collegiate</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
         <is>
           <t>academic</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
-        <is>
-          <t>effects</t>
-        </is>
-      </c>
-      <c r="HL1" s="1" t="inlineStr">
-        <is>
-          <t>ablest</t>
-        </is>
-      </c>
-      <c r="HM1" s="1" t="inlineStr">
-        <is>
-          <t>survey</t>
-        </is>
-      </c>
-      <c r="HN1" s="1" t="inlineStr">
-        <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="HO1" s="1" t="inlineStr">
-        <is>
-          <t>experienced</t>
-        </is>
-      </c>
-      <c r="HP1" s="1" t="inlineStr">
-        <is>
-          <t>across</t>
-        </is>
-      </c>
-      <c r="HQ1" s="1" t="inlineStr">
-        <is>
-          <t>ng</t>
-        </is>
-      </c>
-      <c r="HR1" s="1" t="inlineStr">
-        <is>
-          <t>smpy</t>
-        </is>
-      </c>
-      <c r="HS1" s="1" t="inlineStr">
-        <is>
-          <t>attending</t>
-        </is>
-      </c>
-      <c r="HT1" s="1" t="inlineStr">
-        <is>
-          <t>culture</t>
-        </is>
-      </c>
-      <c r="HU1" s="1" t="inlineStr">
-        <is>
-          <t>korea</t>
-        </is>
-      </c>
-      <c r="HV1" s="1" t="inlineStr">
-        <is>
-          <t>prevalence</t>
-        </is>
-      </c>
-      <c r="HW1" s="1" t="inlineStr">
-        <is>
-          <t>life</t>
-        </is>
-      </c>
-      <c r="HX1" s="1" t="inlineStr">
-        <is>
-          <t>models</t>
-        </is>
-      </c>
-      <c r="HY1" s="1" t="inlineStr">
-        <is>
-          <t>met</t>
-        </is>
-      </c>
-      <c r="HZ1" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="IA1" s="1" t="inlineStr">
-        <is>
-          <t>greek</t>
-        </is>
-      </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>effectively</t>
+          <t>careers</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>prodigies</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>lenhard</t>
+          <t>held</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>choose</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>lenny</t>
+          <t>similar</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>tao</t>
+          <t>boy</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>collegiate</t>
+          <t>order</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>terry</t>
+          <t>conducted</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
-          <t>tailored</t>
+          <t>texts</t>
         </is>
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
-          <t>terence</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="IL1" s="1" t="inlineStr">
         <is>
-          <t>bullies</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>careers</t>
+          <t>opportunities</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>combination</t>
+          <t>literacy</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>held</t>
+          <t>within</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>literacy</t>
+          <t>staff</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>opportunities</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>choose</t>
+          <t>intellectually</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>regular</t>
+          <t>violent</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>boy</t>
+          <t>educators</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>within</t>
+          <t>victims</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>order</t>
+          <t>national</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>texts</t>
+          <t>graders</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>432</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
-          <t>staff</t>
+          <t>developmental</t>
         </is>
       </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>educators</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>intellectually</t>
+          <t>ability</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>teaching</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>developmental</t>
+          <t>family</t>
         </is>
       </c>
       <c r="JD1" s="1" t="inlineStr">
         <is>
-          <t>teaching</t>
+          <t>group</t>
         </is>
       </c>
       <c r="JE1" s="1" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>career</t>
         </is>
       </c>
       <c r="JF1" s="1" t="inlineStr">
         <is>
-          <t>ability</t>
+          <t>services</t>
         </is>
       </c>
       <c r="JG1" s="1" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>essential</t>
         </is>
       </c>
       <c r="JH1" s="1" t="inlineStr">
         <is>
-          <t>services</t>
+          <t>high-achieving</t>
         </is>
       </c>
       <c r="JI1" s="1" t="inlineStr">
         <is>
+          <t>large</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>questions</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>third</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>resource</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>illustrated</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
+        <is>
+          <t>qualitative</t>
+        </is>
+      </c>
+      <c r="JO1" s="1" t="inlineStr">
+        <is>
+          <t>especially</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
           <t>socially</t>
         </is>
       </c>
-      <c r="JJ1" s="1" t="inlineStr">
+      <c r="JQ1" s="1" t="inlineStr">
         <is>
           <t>self-oriented</t>
         </is>
       </c>
-      <c r="JK1" s="1" t="inlineStr">
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>performance-approach</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>studied</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>perfectionists</t>
+        </is>
+      </c>
+      <c r="JU1" s="1" t="inlineStr">
         <is>
           <t>insecure</t>
         </is>
       </c>
-      <c r="JL1" s="1" t="inlineStr">
-        <is>
-          <t>essential</t>
-        </is>
-      </c>
-      <c r="JM1" s="1" t="inlineStr">
-        <is>
-          <t>group</t>
-        </is>
-      </c>
-      <c r="JN1" s="1" t="inlineStr">
-        <is>
-          <t>third</t>
-        </is>
-      </c>
-      <c r="JO1" s="1" t="inlineStr">
-        <is>
-          <t>resource</t>
-        </is>
-      </c>
-      <c r="JP1" s="1" t="inlineStr">
+      <c r="JV1" s="1" t="inlineStr">
+        <is>
+          <t>influence</t>
+        </is>
+      </c>
+      <c r="JW1" s="1" t="inlineStr">
+        <is>
+          <t>inventory</t>
+        </is>
+      </c>
+      <c r="JX1" s="1" t="inlineStr">
+        <is>
+          <t>understand</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>characteristics</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
         <is>
           <t>measure</t>
         </is>
       </c>
-      <c r="JQ1" s="1" t="inlineStr">
-        <is>
-          <t>performance-approach</t>
-        </is>
-      </c>
-      <c r="JR1" s="1" t="inlineStr">
-        <is>
-          <t>perfectionists</t>
-        </is>
-      </c>
-      <c r="JS1" s="1" t="inlineStr">
-        <is>
-          <t>career</t>
-        </is>
-      </c>
-      <c r="JT1" s="1" t="inlineStr">
-        <is>
-          <t>studied</t>
-        </is>
-      </c>
-      <c r="JU1" s="1" t="inlineStr">
-        <is>
-          <t>large</t>
-        </is>
-      </c>
-      <c r="JV1" s="1" t="inlineStr">
-        <is>
-          <t>similar</t>
-        </is>
-      </c>
-      <c r="JW1" s="1" t="inlineStr">
-        <is>
-          <t>questions</t>
-        </is>
-      </c>
-      <c r="JX1" s="1" t="inlineStr">
-        <is>
-          <t>inventory</t>
-        </is>
-      </c>
-      <c r="JY1" s="1" t="inlineStr">
-        <is>
-          <t>high-achieving</t>
-        </is>
-      </c>
-      <c r="JZ1" s="1" t="inlineStr">
-        <is>
-          <t>understand</t>
-        </is>
-      </c>
-      <c r="KA1" s="1" t="inlineStr">
-        <is>
-          <t>victims</t>
-        </is>
-      </c>
       <c r="KB1" s="1" t="inlineStr">
         <is>
-          <t>illustrated</t>
+          <t>highly</t>
         </is>
       </c>
       <c r="KC1" s="1" t="inlineStr">
         <is>
-          <t>especially</t>
+          <t>peers</t>
         </is>
       </c>
       <c r="KD1" s="1" t="inlineStr">
         <is>
-          <t>violent</t>
+          <t>child</t>
         </is>
       </c>
       <c r="KE1" s="1" t="inlineStr">
         <is>
-          <t>influence</t>
+          <t>individualized</t>
         </is>
       </c>
       <c r="KF1" s="1" t="inlineStr">
         <is>
-          <t>conducted</t>
+          <t>design</t>
         </is>
       </c>
       <c r="KG1" s="1" t="inlineStr">
         <is>
-          <t>qualitative</t>
+          <t>understanding</t>
         </is>
       </c>
       <c r="KH1" s="1" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>effort</t>
         </is>
       </c>
       <c r="KI1" s="1" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>indicated</t>
         </is>
       </c>
       <c r="KJ1" s="1" t="inlineStr">
         <is>
-          <t>characteristics</t>
+          <t>case</t>
         </is>
       </c>
       <c r="KK1" s="1" t="inlineStr">
         <is>
-          <t>national</t>
+          <t>improving</t>
         </is>
       </c>
       <c r="KL1" s="1" t="inlineStr">
         <is>
-          <t>highly</t>
+          <t>academics</t>
         </is>
       </c>
       <c r="KM1" s="1" t="inlineStr">
         <is>
-          <t>graders</t>
+          <t>residential</t>
         </is>
       </c>
       <c r="KN1" s="1" t="inlineStr">
         <is>
-          <t>residential</t>
+          <t>rather</t>
         </is>
       </c>
       <c r="KO1" s="1" t="inlineStr">
         <is>
-          <t>rather</t>
+          <t>empirical</t>
         </is>
       </c>
       <c r="KP1" s="1" t="inlineStr">
         <is>
-          <t>effort</t>
+          <t>social</t>
         </is>
       </c>
       <c r="KQ1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>responsibility</t>
         </is>
       </c>
       <c r="KR1" s="1" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>connections</t>
         </is>
       </c>
       <c r="KS1" s="1" t="inlineStr">
         <is>
-          <t>indicated</t>
+          <t>less</t>
         </is>
       </c>
       <c r="KT1" s="1" t="inlineStr">
         <is>
-          <t>individualized</t>
+          <t>abilities</t>
         </is>
       </c>
       <c r="KU1" s="1" t="inlineStr">
         <is>
-          <t>improving</t>
+          <t>either</t>
         </is>
       </c>
       <c r="KV1" s="1" t="inlineStr">
         <is>
-          <t>understanding</t>
+          <t>elements</t>
         </is>
       </c>
       <c r="KW1" s="1" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>correlation</t>
         </is>
       </c>
       <c r="KX1" s="1" t="inlineStr">
         <is>
-          <t>academics</t>
+          <t>gpa</t>
         </is>
       </c>
       <c r="KY1" s="1" t="inlineStr">
         <is>
-          <t>empirical</t>
+          <t>spi</t>
         </is>
       </c>
       <c r="KZ1" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>styles</t>
         </is>
       </c>
       <c r="LA1" s="1" t="inlineStr">
         <is>
-          <t>peers</t>
+          <t>averages</t>
         </is>
       </c>
       <c r="LB1" s="1" t="inlineStr">
         <is>
-          <t>design</t>
+          <t>however</t>
         </is>
       </c>
       <c r="LC1" s="1" t="inlineStr">
         <is>
-          <t>elements</t>
+          <t>subject</t>
         </is>
       </c>
       <c r="LD1" s="1" t="inlineStr">
         <is>
-          <t>gpa</t>
+          <t>path</t>
         </is>
       </c>
       <c r="LE1" s="1" t="inlineStr">
         <is>
-          <t>abilities</t>
+          <t>grades</t>
         </is>
       </c>
       <c r="LF1" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>benefits</t>
         </is>
       </c>
       <c r="LG1" s="1" t="inlineStr">
         <is>
-          <t>either</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="LH1" s="1" t="inlineStr">
         <is>
-          <t>responsibility</t>
+          <t>literature</t>
         </is>
       </c>
       <c r="LI1" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>impact</t>
         </is>
       </c>
       <c r="LJ1" s="1" t="inlineStr">
         <is>
-          <t>averages</t>
+          <t>demonstrated</t>
         </is>
       </c>
       <c r="LK1" s="1" t="inlineStr">
         <is>
-          <t>correlation</t>
+          <t>nature</t>
         </is>
       </c>
       <c r="LL1" s="1" t="inlineStr">
         <is>
-          <t>less</t>
+          <t>approximately</t>
         </is>
       </c>
       <c r="LM1" s="1" t="inlineStr">
         <is>
-          <t>connections</t>
+          <t>female</t>
         </is>
       </c>
       <c r="LN1" s="1" t="inlineStr">
         <is>
-          <t>spi</t>
+          <t>context</t>
         </is>
       </c>
       <c r="LO1" s="1" t="inlineStr">
         <is>
-          <t>styles</t>
+          <t>describes</t>
         </is>
       </c>
       <c r="LP1" s="1" t="inlineStr">
         <is>
-          <t>demonstrated</t>
+          <t>versus</t>
         </is>
       </c>
       <c r="LQ1" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>differentiated</t>
         </is>
       </c>
       <c r="LR1" s="1" t="inlineStr">
         <is>
+          <t>provide</t>
+        </is>
+      </c>
+      <c r="LS1" s="1" t="inlineStr">
+        <is>
           <t>reported</t>
         </is>
       </c>
-      <c r="LS1" s="1" t="inlineStr">
+      <c r="LT1" s="1" t="inlineStr">
+        <is>
+          <t>statistically</t>
+        </is>
+      </c>
+      <c r="LU1" s="1" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="LV1" s="1" t="inlineStr">
         <is>
           <t>based</t>
         </is>
       </c>
-      <c r="LT1" s="1" t="inlineStr">
-        <is>
-          <t>however</t>
-        </is>
-      </c>
-      <c r="LU1" s="1" t="inlineStr">
-        <is>
-          <t>statistically</t>
-        </is>
-      </c>
-      <c r="LV1" s="1" t="inlineStr">
+      <c r="LW1" s="1" t="inlineStr">
         <is>
           <t>activities</t>
         </is>
       </c>
-      <c r="LW1" s="1" t="inlineStr">
-        <is>
-          <t>differentiated</t>
-        </is>
-      </c>
       <c r="LX1" s="1" t="inlineStr">
         <is>
-          <t>benefits</t>
+          <t>classrooms</t>
         </is>
       </c>
       <c r="LY1" s="1" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>provided</t>
         </is>
       </c>
       <c r="LZ1" s="1" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>factor</t>
         </is>
       </c>
       <c r="MA1" s="1" t="inlineStr">
         <is>
-          <t>path</t>
+          <t>better</t>
         </is>
       </c>
       <c r="MB1" s="1" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>relationships</t>
         </is>
       </c>
       <c r="MC1" s="1" t="inlineStr">
         <is>
-          <t>versus</t>
+          <t>least</t>
         </is>
       </c>
       <c r="MD1" s="1" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>involved</t>
         </is>
       </c>
       <c r="ME1" s="1" t="inlineStr">
         <is>
-          <t>provide</t>
+          <t>effect</t>
         </is>
       </c>
       <c r="MF1" s="1" t="inlineStr">
         <is>
-          <t>local</t>
+          <t>groups</t>
         </is>
       </c>
       <c r="MG1" s="1" t="inlineStr">
         <is>
-          <t>describes</t>
+          <t>following</t>
         </is>
       </c>
       <c r="MH1" s="1" t="inlineStr">
         <is>
-          <t>literature</t>
+          <t>whether</t>
         </is>
       </c>
       <c r="MI1" s="1" t="inlineStr">
         <is>
-          <t>approximately</t>
+          <t>items</t>
         </is>
       </c>
       <c r="MJ1" s="1" t="inlineStr">
         <is>
-          <t>they</t>
+          <t>determine</t>
         </is>
       </c>
       <c r="MK1" s="1" t="inlineStr">
         <is>
-          <t>nature</t>
+          <t>subtle</t>
         </is>
       </c>
       <c r="ML1" s="1" t="inlineStr">
         <is>
-          <t>subject</t>
+          <t>profile</t>
         </is>
       </c>
       <c r="MM1" s="1" t="inlineStr">
         <is>
+          <t>investigate</t>
+        </is>
+      </c>
+      <c r="MN1" s="1" t="inlineStr">
+        <is>
+          <t>individual</t>
+        </is>
+      </c>
+      <c r="MO1" s="1" t="inlineStr">
+        <is>
+          <t>purpose</t>
+        </is>
+      </c>
+      <c r="MP1" s="1" t="inlineStr">
+        <is>
           <t>revealed</t>
         </is>
       </c>
-      <c r="MN1" s="1" t="inlineStr">
-        <is>
-          <t>determine</t>
-        </is>
-      </c>
-      <c r="MO1" s="1" t="inlineStr">
-        <is>
-          <t>effect</t>
-        </is>
-      </c>
-      <c r="MP1" s="1" t="inlineStr">
-        <is>
-          <t>following</t>
-        </is>
-      </c>
       <c r="MQ1" s="1" t="inlineStr">
         <is>
-          <t>involved</t>
+          <t>perspective</t>
         </is>
       </c>
       <c r="MR1" s="1" t="inlineStr">
         <is>
-          <t>impact</t>
+          <t>chinese</t>
         </is>
       </c>
       <c r="MS1" s="1" t="inlineStr">
         <is>
-          <t>grades</t>
+          <t>strengths</t>
         </is>
       </c>
       <c r="MT1" s="1" t="inlineStr">
         <is>
-          <t>better</t>
+          <t>confirmatory</t>
         </is>
       </c>
       <c r="MU1" s="1" t="inlineStr">
         <is>
-          <t>investigate</t>
+          <t>math</t>
         </is>
       </c>
       <c r="MV1" s="1" t="inlineStr">
         <is>
-          <t>confirmatory</t>
+          <t>existing</t>
         </is>
       </c>
       <c r="MW1" s="1" t="inlineStr">
         <is>
-          <t>provided</t>
+          <t>suggested</t>
         </is>
       </c>
       <c r="MX1" s="1" t="inlineStr">
         <is>
-          <t>individual</t>
+          <t>second</t>
         </is>
       </c>
       <c r="MY1" s="1" t="inlineStr">
         <is>
-          <t>math</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="MZ1" s="1" t="inlineStr">
         <is>
-          <t>existing</t>
+          <t>federally</t>
         </is>
       </c>
       <c r="NA1" s="1" t="inlineStr">
         <is>
-          <t>profile</t>
+          <t>funded</t>
         </is>
       </c>
       <c r="NB1" s="1" t="inlineStr">
         <is>
-          <t>strengths</t>
+          <t>elementary</t>
         </is>
       </c>
       <c r="NC1" s="1" t="inlineStr">
         <is>
-          <t>subtle</t>
+          <t>demonstration</t>
         </is>
       </c>
       <c r="ND1" s="1" t="inlineStr">
         <is>
-          <t>factor</t>
+          <t>college</t>
         </is>
       </c>
       <c r="NE1" s="1" t="inlineStr">
         <is>
-          <t>perspective</t>
+          <t>act</t>
         </is>
       </c>
       <c r="NF1" s="1" t="inlineStr">
         <is>
-          <t>purpose</t>
+          <t>changes</t>
         </is>
       </c>
       <c r="NG1" s="1" t="inlineStr">
         <is>
-          <t>classrooms</t>
+          <t>carolina</t>
         </is>
       </c>
       <c r="NH1" s="1" t="inlineStr">
         <is>
-          <t>items</t>
+          <t>breakthrough</t>
         </is>
       </c>
       <c r="NI1" s="1" t="inlineStr">
         <is>
-          <t>chinese</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="NJ1" s="1" t="inlineStr">
         <is>
-          <t>least</t>
+          <t>breaking</t>
         </is>
       </c>
       <c r="NK1" s="1" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>average-</t>
         </is>
       </c>
       <c r="NL1" s="1" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>assumptions</t>
         </is>
       </c>
       <c r="NM1" s="1" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>implemented</t>
         </is>
       </c>
       <c r="NN1" s="1" t="inlineStr">
         <is>
+          <t>open-ended</t>
+        </is>
+      </c>
+      <c r="NO1" s="1" t="inlineStr">
+        <is>
+          <t>implementation</t>
+        </is>
+      </c>
+      <c r="NP1" s="1" t="inlineStr">
+        <is>
+          <t>evaluating</t>
+        </is>
+      </c>
+      <c r="NQ1" s="1" t="inlineStr">
+        <is>
+          <t>javits</t>
+        </is>
+      </c>
+      <c r="NR1" s="1" t="inlineStr">
+        <is>
           <t>guidelines</t>
         </is>
       </c>
-      <c r="NO1" s="1" t="inlineStr">
-        <is>
-          <t>evaluating</t>
-        </is>
-      </c>
-      <c r="NP1" s="1" t="inlineStr">
+      <c r="NS1" s="1" t="inlineStr">
+        <is>
+          <t>suggests</t>
+        </is>
+      </c>
+      <c r="NT1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="NU1" s="1" t="inlineStr">
+        <is>
+          <t>low-</t>
+        </is>
+      </c>
+      <c r="NV1" s="1" t="inlineStr">
+        <is>
+          <t>suspected</t>
+        </is>
+      </c>
+      <c r="NW1" s="1" t="inlineStr">
+        <is>
+          <t>putting</t>
+        </is>
+      </c>
+      <c r="NX1" s="1" t="inlineStr">
+        <is>
+          <t>proposed</t>
+        </is>
+      </c>
+      <c r="NY1" s="1" t="inlineStr">
+        <is>
+          <t>procedures</t>
+        </is>
+      </c>
+      <c r="NZ1" s="1" t="inlineStr">
+        <is>
+          <t>principles</t>
+        </is>
+      </c>
+      <c r="OA1" s="1" t="inlineStr">
+        <is>
+          <t>presents</t>
+        </is>
+      </c>
+      <c r="OB1" s="1" t="inlineStr">
         <is>
           <t>individuals</t>
         </is>
       </c>
-      <c r="NQ1" s="1" t="inlineStr">
-        <is>
-          <t>presents</t>
-        </is>
-      </c>
-      <c r="NR1" s="1" t="inlineStr">
+      <c r="OC1" s="1" t="inlineStr">
+        <is>
+          <t>ways</t>
+        </is>
+      </c>
+      <c r="OD1" s="1" t="inlineStr">
+        <is>
+          <t>reports</t>
+        </is>
+      </c>
+      <c r="OE1" s="1" t="inlineStr">
+        <is>
+          <t>minority</t>
+        </is>
+      </c>
+      <c r="OF1" s="1" t="inlineStr">
+        <is>
+          <t>south</t>
+        </is>
+      </c>
+      <c r="OG1" s="1" t="inlineStr">
         <is>
           <t>disability</t>
         </is>
       </c>
-      <c r="NS1" s="1" t="inlineStr">
+      <c r="OH1" s="1" t="inlineStr">
         <is>
           <t>considerations</t>
         </is>
       </c>
-      <c r="NT1" s="1" t="inlineStr">
-        <is>
-          <t>groups</t>
-        </is>
-      </c>
-      <c r="NU1" s="1" t="inlineStr">
-        <is>
-          <t>principles</t>
-        </is>
-      </c>
-      <c r="NV1" s="1" t="inlineStr">
-        <is>
-          <t>procedures</t>
-        </is>
-      </c>
-      <c r="NW1" s="1" t="inlineStr">
+      <c r="OI1" s="1" t="inlineStr">
         <is>
           <t>assessing</t>
         </is>
       </c>
-      <c r="NX1" s="1" t="inlineStr">
-        <is>
-          <t>proposed</t>
-        </is>
-      </c>
-      <c r="NY1" s="1" t="inlineStr">
-        <is>
-          <t>putting</t>
-        </is>
-      </c>
-      <c r="NZ1" s="1" t="inlineStr">
-        <is>
-          <t>relationships</t>
-        </is>
-      </c>
-      <c r="OA1" s="1" t="inlineStr">
-        <is>
-          <t>ways</t>
-        </is>
-      </c>
-      <c r="OB1" s="1" t="inlineStr">
-        <is>
-          <t>open-ended</t>
-        </is>
-      </c>
-      <c r="OC1" s="1" t="inlineStr">
-        <is>
-          <t>suggests</t>
-        </is>
-      </c>
-      <c r="OD1" s="1" t="inlineStr">
-        <is>
-          <t>suggested</t>
-        </is>
-      </c>
-      <c r="OE1" s="1" t="inlineStr">
-        <is>
-          <t>whether</t>
-        </is>
-      </c>
-      <c r="OF1" s="1" t="inlineStr">
-        <is>
-          <t>suspected</t>
-        </is>
-      </c>
-      <c r="OG1" s="1" t="inlineStr">
+      <c r="OJ1" s="1" t="inlineStr">
+        <is>
+          <t>worked</t>
+        </is>
+      </c>
+      <c r="OK1" s="1" t="inlineStr">
+        <is>
+          <t>train</t>
+        </is>
+      </c>
+      <c r="OL1" s="1" t="inlineStr">
         <is>
           <t>unique</t>
         </is>
       </c>
-      <c r="OH1" s="1" t="inlineStr">
+      <c r="OM1" s="1" t="inlineStr">
         <is>
           <t>greatest</t>
         </is>
       </c>
-      <c r="OI1" s="1" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="OJ1" s="1" t="inlineStr">
+      <c r="ON1" s="1" t="inlineStr">
+        <is>
+          <t>subjects</t>
+        </is>
+      </c>
+      <c r="OO1" s="1" t="inlineStr">
+        <is>
+          <t>surveyed</t>
+        </is>
+      </c>
+      <c r="OP1" s="1" t="inlineStr">
+        <is>
+          <t>contributed</t>
+        </is>
+      </c>
+      <c r="OQ1" s="1" t="inlineStr">
+        <is>
+          <t>suffered</t>
+        </is>
+      </c>
+      <c r="OR1" s="1" t="inlineStr">
+        <is>
+          <t>continues</t>
+        </is>
+      </c>
+      <c r="OS1" s="1" t="inlineStr">
+        <is>
+          <t>despaired</t>
+        </is>
+      </c>
+      <c r="OT1" s="1" t="inlineStr">
+        <is>
+          <t>crucial</t>
+        </is>
+      </c>
+      <c r="OU1" s="1" t="inlineStr">
+        <is>
+          <t>8th</t>
+        </is>
+      </c>
+      <c r="OV1" s="1" t="inlineStr">
+        <is>
+          <t>thought</t>
+        </is>
+      </c>
+      <c r="OW1" s="1" t="inlineStr">
+        <is>
+          <t>early</t>
+        </is>
+      </c>
+      <c r="OX1" s="1" t="inlineStr">
+        <is>
+          <t>wellbeing</t>
+        </is>
+      </c>
+      <c r="OY1" s="1" t="inlineStr">
+        <is>
+          <t>believed</t>
+        </is>
+      </c>
+      <c r="OZ1" s="1" t="inlineStr">
+        <is>
+          <t>assumed</t>
+        </is>
+      </c>
+      <c r="PA1" s="1" t="inlineStr">
+        <is>
+          <t>appeared</t>
+        </is>
+      </c>
+      <c r="PB1" s="1" t="inlineStr">
+        <is>
+          <t>distressing</t>
+        </is>
+      </c>
+      <c r="PC1" s="1" t="inlineStr">
+        <is>
+          <t>structured</t>
+        </is>
+      </c>
+      <c r="PD1" s="1" t="inlineStr">
+        <is>
+          <t>subjective</t>
+        </is>
+      </c>
+      <c r="PE1" s="1" t="inlineStr">
+        <is>
+          <t>helping</t>
+        </is>
+      </c>
+      <c r="PF1" s="1" t="inlineStr">
+        <is>
+          <t>known</t>
+        </is>
+      </c>
+      <c r="PG1" s="1" t="inlineStr">
+        <is>
+          <t>interviewed</t>
+        </is>
+      </c>
+      <c r="PH1" s="1" t="inlineStr">
+        <is>
+          <t>interview</t>
+        </is>
+      </c>
+      <c r="PI1" s="1" t="inlineStr">
+        <is>
+          <t>intentionally</t>
+        </is>
+      </c>
+      <c r="PJ1" s="1" t="inlineStr">
+        <is>
+          <t>incident</t>
+        </is>
+      </c>
+      <c r="PK1" s="1" t="inlineStr">
+        <is>
+          <t>lived</t>
+        </is>
+      </c>
+      <c r="PL1" s="1" t="inlineStr">
+        <is>
+          <t>helped</t>
+        </is>
+      </c>
+      <c r="PM1" s="1" t="inlineStr">
+        <is>
+          <t>struggled</t>
+        </is>
+      </c>
+      <c r="PN1" s="1" t="inlineStr">
+        <is>
+          <t>halted</t>
+        </is>
+      </c>
+      <c r="PO1" s="1" t="inlineStr">
+        <is>
+          <t>safe</t>
+        </is>
+      </c>
+      <c r="PP1" s="1" t="inlineStr">
+        <is>
+          <t>silence</t>
+        </is>
+      </c>
+      <c r="PQ1" s="1" t="inlineStr">
+        <is>
+          <t>stopping</t>
+        </is>
+      </c>
+      <c r="PR1" s="1" t="inlineStr">
+        <is>
+          <t>make</t>
+        </is>
+      </c>
+      <c r="PS1" s="1" t="inlineStr">
+        <is>
+          <t>feeling</t>
+        </is>
+      </c>
+      <c r="PT1" s="1" t="inlineStr">
+        <is>
+          <t>adjustments</t>
+        </is>
+      </c>
+      <c r="PU1" s="1" t="inlineStr">
+        <is>
+          <t>portion</t>
+        </is>
+      </c>
+      <c r="PV1" s="1" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="PW1" s="1" t="inlineStr">
+        <is>
+          <t>game</t>
+        </is>
+      </c>
+      <c r="PX1" s="1" t="inlineStr">
+        <is>
+          <t>examine</t>
+        </is>
+      </c>
+      <c r="PY1" s="1" t="inlineStr">
+        <is>
+          <t>practically</t>
+        </is>
+      </c>
+      <c r="PZ1" s="1" t="inlineStr">
+        <is>
+          <t>psychosocial</t>
+        </is>
+      </c>
+      <c r="QA1" s="1" t="inlineStr">
+        <is>
+          <t>salient</t>
+        </is>
+      </c>
+      <c r="QB1" s="1" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="QC1" s="1" t="inlineStr">
+        <is>
+          <t>2nd-grade</t>
+        </is>
+      </c>
+      <c r="QD1" s="1" t="inlineStr">
+        <is>
+          <t>adaptive</t>
+        </is>
+      </c>
+      <c r="QE1" s="1" t="inlineStr">
+        <is>
+          <t>advantage</t>
+        </is>
+      </c>
+      <c r="QF1" s="1" t="inlineStr">
+        <is>
+          <t>appropriately</t>
+        </is>
+      </c>
+      <c r="QG1" s="1" t="inlineStr">
+        <is>
+          <t>computer</t>
+        </is>
+      </c>
+      <c r="QH1" s="1" t="inlineStr">
+        <is>
+          <t>considered</t>
+        </is>
+      </c>
+      <c r="QI1" s="1" t="inlineStr">
+        <is>
+          <t>current</t>
+        </is>
+      </c>
+      <c r="QJ1" s="1" t="inlineStr">
+        <is>
+          <t>differed</t>
+        </is>
+      </c>
+      <c r="QK1" s="1" t="inlineStr">
+        <is>
+          <t>fifty</t>
+        </is>
+      </c>
+      <c r="QL1" s="1" t="inlineStr">
+        <is>
+          <t>greater</t>
+        </is>
+      </c>
+      <c r="QM1" s="1" t="inlineStr">
+        <is>
+          <t>older</t>
+        </is>
+      </c>
+      <c r="QN1" s="1" t="inlineStr">
+        <is>
+          <t>greatly</t>
+        </is>
+      </c>
+      <c r="QO1" s="1" t="inlineStr">
+        <is>
+          <t>knowledge</t>
+        </is>
+      </c>
+      <c r="QP1" s="1" t="inlineStr">
+        <is>
+          <t>newer</t>
+        </is>
+      </c>
+      <c r="QQ1" s="1" t="inlineStr">
+        <is>
+          <t>often</t>
+        </is>
+      </c>
+      <c r="QR1" s="1" t="inlineStr">
+        <is>
+          <t>patterns</t>
+        </is>
+      </c>
+      <c r="QS1" s="1" t="inlineStr">
+        <is>
+          <t>playing</t>
+        </is>
+      </c>
+      <c r="QT1" s="1" t="inlineStr">
+        <is>
+          <t>psychology</t>
+        </is>
+      </c>
+      <c r="QU1" s="1" t="inlineStr">
+        <is>
+          <t>quicker</t>
+        </is>
+      </c>
+      <c r="QV1" s="1" t="inlineStr">
         <is>
           <t>siegler</t>
         </is>
       </c>
-      <c r="OK1" s="1" t="inlineStr">
-        <is>
-          <t>wellbeing</t>
-        </is>
-      </c>
-      <c r="OL1" s="1" t="inlineStr">
-        <is>
-          <t>portion</t>
-        </is>
-      </c>
-      <c r="OM1" s="1" t="inlineStr">
-        <is>
-          <t>psychology</t>
-        </is>
-      </c>
-      <c r="ON1" s="1" t="inlineStr">
+      <c r="QW1" s="1" t="inlineStr">
+        <is>
+          <t>solving</t>
+        </is>
+      </c>
+      <c r="QX1" s="1" t="inlineStr">
+        <is>
+          <t>strategy-choice</t>
+        </is>
+      </c>
+      <c r="QY1" s="1" t="inlineStr">
+        <is>
+          <t>theory</t>
+        </is>
+      </c>
+      <c r="QZ1" s="1" t="inlineStr">
+        <is>
+          <t>variability</t>
+        </is>
+      </c>
+      <c r="RA1" s="1" t="inlineStr">
         <is>
           <t>videotaped</t>
         </is>
       </c>
-      <c r="OO1" s="1" t="inlineStr">
-        <is>
-          <t>safe</t>
-        </is>
-      </c>
-      <c r="OP1" s="1" t="inlineStr">
-        <is>
-          <t>quicker</t>
-        </is>
-      </c>
-      <c r="OQ1" s="1" t="inlineStr">
-        <is>
-          <t>silence</t>
-        </is>
-      </c>
-      <c r="OR1" s="1" t="inlineStr">
-        <is>
-          <t>stopping</t>
-        </is>
-      </c>
-      <c r="OS1" s="1" t="inlineStr">
-        <is>
-          <t>surveyed</t>
-        </is>
-      </c>
-      <c r="OT1" s="1" t="inlineStr">
-        <is>
-          <t>variability</t>
-        </is>
-      </c>
-      <c r="OU1" s="1" t="inlineStr">
-        <is>
-          <t>structured</t>
-        </is>
-      </c>
-      <c r="OV1" s="1" t="inlineStr">
-        <is>
-          <t>solving</t>
-        </is>
-      </c>
-      <c r="OW1" s="1" t="inlineStr">
-        <is>
-          <t>struggled</t>
-        </is>
-      </c>
-      <c r="OX1" s="1" t="inlineStr">
-        <is>
-          <t>subjective</t>
-        </is>
-      </c>
-      <c r="OY1" s="1" t="inlineStr">
-        <is>
-          <t>thought</t>
-        </is>
-      </c>
-      <c r="OZ1" s="1" t="inlineStr">
-        <is>
-          <t>strategy-choice</t>
-        </is>
-      </c>
-      <c r="PA1" s="1" t="inlineStr">
-        <is>
-          <t>theory</t>
-        </is>
-      </c>
-      <c r="PB1" s="1" t="inlineStr">
-        <is>
-          <t>subjects</t>
-        </is>
-      </c>
-      <c r="PC1" s="1" t="inlineStr">
-        <is>
-          <t>playing</t>
-        </is>
-      </c>
-      <c r="PD1" s="1" t="inlineStr">
-        <is>
-          <t>2nd-grade</t>
-        </is>
-      </c>
-      <c r="PE1" s="1" t="inlineStr">
-        <is>
-          <t>patterns</t>
-        </is>
-      </c>
-      <c r="PF1" s="1" t="inlineStr">
+      <c r="RB1" s="1" t="inlineStr">
+        <is>
+          <t>peer</t>
+        </is>
+      </c>
+      <c r="RC1" s="1" t="inlineStr">
+        <is>
+          <t>much</t>
+        </is>
+      </c>
+      <c r="RD1" s="1" t="inlineStr">
+        <is>
+          <t>intake</t>
+        </is>
+      </c>
+      <c r="RE1" s="1" t="inlineStr">
+        <is>
+          <t>particularly</t>
+        </is>
+      </c>
+      <c r="RF1" s="1" t="inlineStr">
+        <is>
+          <t>and/or</t>
+        </is>
+      </c>
+      <c r="RG1" s="1" t="inlineStr">
+        <is>
+          <t>hypothesis</t>
+        </is>
+      </c>
+      <c r="RH1" s="1" t="inlineStr">
+        <is>
+          <t>forms</t>
+        </is>
+      </c>
+      <c r="RI1" s="1" t="inlineStr">
+        <is>
+          <t>hypothesized</t>
+        </is>
+      </c>
+      <c r="RJ1" s="1" t="inlineStr">
+        <is>
+          <t>intelligent</t>
+        </is>
+      </c>
+      <c r="RK1" s="1" t="inlineStr">
+        <is>
+          <t>iq</t>
+        </is>
+      </c>
+      <c r="RL1" s="1" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+      <c r="RM1" s="1" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="RN1" s="1" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="RO1" s="1" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="RP1" s="1" t="inlineStr">
+        <is>
+          <t>demonstrate</t>
+        </is>
+      </c>
+      <c r="RQ1" s="1" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="RR1" s="1" t="inlineStr">
+        <is>
+          <t>-were</t>
+        </is>
+      </c>
+      <c r="RS1" s="1" t="inlineStr">
+        <is>
+          <t>pertains</t>
+        </is>
+      </c>
+      <c r="RT1" s="1" t="inlineStr">
+        <is>
+          <t>verbal/performance</t>
+        </is>
+      </c>
+      <c r="RU1" s="1" t="inlineStr">
+        <is>
+          <t>profiles</t>
+        </is>
+      </c>
+      <c r="RV1" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="RW1" s="1" t="inlineStr">
+        <is>
+          <t>established</t>
+        </is>
+      </c>
+      <c r="RX1" s="1" t="inlineStr">
+        <is>
+          <t>overall</t>
+        </is>
+      </c>
+      <c r="RY1" s="1" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="RZ1" s="1" t="inlineStr">
+        <is>
+          <t>addition</t>
+        </is>
+      </c>
+      <c r="SA1" s="1" t="inlineStr">
+        <is>
+          <t>edition</t>
+        </is>
+      </c>
+      <c r="SB1" s="1" t="inlineStr">
+        <is>
+          <t>children-those</t>
+        </is>
+      </c>
+      <c r="SC1" s="1" t="inlineStr">
+        <is>
+          <t>verbal</t>
+        </is>
+      </c>
+      <c r="SD1" s="1" t="inlineStr">
+        <is>
+          <t>typical</t>
+        </is>
+      </c>
+      <c r="SE1" s="1" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="SF1" s="1" t="inlineStr">
         <is>
           <t>reporting</t>
         </is>
       </c>
-      <c r="PG1" s="1" t="inlineStr">
-        <is>
-          <t>assumptions</t>
-        </is>
-      </c>
-      <c r="PH1" s="1" t="inlineStr">
-        <is>
-          <t>act</t>
-        </is>
-      </c>
-      <c r="PI1" s="1" t="inlineStr">
-        <is>
-          <t>verbal/performance</t>
-        </is>
-      </c>
-      <c r="PJ1" s="1" t="inlineStr">
-        <is>
-          <t>verbal</t>
-        </is>
-      </c>
-      <c r="PK1" s="1" t="inlineStr">
-        <is>
-          <t>typical</t>
-        </is>
-      </c>
-      <c r="PL1" s="1" t="inlineStr">
-        <is>
-          <t>table</t>
-        </is>
-      </c>
-      <c r="PM1" s="1" t="inlineStr">
-        <is>
-          <t>profiles</t>
-        </is>
-      </c>
-      <c r="PN1" s="1" t="inlineStr">
-        <is>
-          <t>breaking</t>
-        </is>
-      </c>
-      <c r="PO1" s="1" t="inlineStr">
-        <is>
-          <t>pertains</t>
-        </is>
-      </c>
-      <c r="PP1" s="1" t="inlineStr">
-        <is>
-          <t>particularly</t>
-        </is>
-      </c>
-      <c r="PQ1" s="1" t="inlineStr">
-        <is>
-          <t>much</t>
-        </is>
-      </c>
-      <c r="PR1" s="1" t="inlineStr">
-        <is>
-          <t>manual</t>
-        </is>
-      </c>
-      <c r="PS1" s="1" t="inlineStr">
-        <is>
-          <t>age</t>
-        </is>
-      </c>
-      <c r="PT1" s="1" t="inlineStr">
-        <is>
-          <t>iq</t>
-        </is>
-      </c>
-      <c r="PU1" s="1" t="inlineStr">
-        <is>
-          <t>average-</t>
-        </is>
-      </c>
-      <c r="PV1" s="1" t="inlineStr">
-        <is>
-          <t>breakthrough</t>
-        </is>
-      </c>
-      <c r="PW1" s="1" t="inlineStr">
-        <is>
-          <t>hypothesized</t>
-        </is>
-      </c>
-      <c r="PX1" s="1" t="inlineStr">
-        <is>
-          <t>implemented</t>
-        </is>
-      </c>
-      <c r="PY1" s="1" t="inlineStr">
-        <is>
-          <t>train</t>
-        </is>
-      </c>
-      <c r="PZ1" s="1" t="inlineStr">
-        <is>
-          <t>south</t>
-        </is>
-      </c>
-      <c r="QA1" s="1" t="inlineStr">
-        <is>
-          <t>reports</t>
-        </is>
-      </c>
-      <c r="QB1" s="1" t="inlineStr">
-        <is>
-          <t>minority</t>
-        </is>
-      </c>
-      <c r="QC1" s="1" t="inlineStr">
-        <is>
-          <t>low-</t>
-        </is>
-      </c>
-      <c r="QD1" s="1" t="inlineStr">
-        <is>
-          <t>javits</t>
-        </is>
-      </c>
-      <c r="QE1" s="1" t="inlineStr">
-        <is>
-          <t>implementation</t>
-        </is>
-      </c>
-      <c r="QF1" s="1" t="inlineStr">
-        <is>
-          <t>carolina</t>
-        </is>
-      </c>
-      <c r="QG1" s="1" t="inlineStr">
-        <is>
-          <t>funded</t>
-        </is>
-      </c>
-      <c r="QH1" s="1" t="inlineStr">
-        <is>
-          <t>federally</t>
-        </is>
-      </c>
-      <c r="QI1" s="1" t="inlineStr">
-        <is>
-          <t>elementary</t>
-        </is>
-      </c>
-      <c r="QJ1" s="1" t="inlineStr">
-        <is>
-          <t>demonstration</t>
-        </is>
-      </c>
-      <c r="QK1" s="1" t="inlineStr">
-        <is>
-          <t>college</t>
-        </is>
-      </c>
-      <c r="QL1" s="1" t="inlineStr">
-        <is>
-          <t>changes</t>
-        </is>
-      </c>
-      <c r="QM1" s="1" t="inlineStr">
-        <is>
-          <t>intelligent</t>
-        </is>
-      </c>
-      <c r="QN1" s="1" t="inlineStr">
-        <is>
-          <t>forms</t>
-        </is>
-      </c>
-      <c r="QO1" s="1" t="inlineStr">
-        <is>
-          <t>often</t>
-        </is>
-      </c>
-      <c r="QP1" s="1" t="inlineStr">
-        <is>
-          <t>current</t>
-        </is>
-      </c>
-      <c r="QQ1" s="1" t="inlineStr">
-        <is>
-          <t>worked</t>
-        </is>
-      </c>
-      <c r="QR1" s="1" t="inlineStr">
-        <is>
-          <t>adaptive</t>
-        </is>
-      </c>
-      <c r="QS1" s="1" t="inlineStr">
-        <is>
-          <t>advantage</t>
-        </is>
-      </c>
-      <c r="QT1" s="1" t="inlineStr">
-        <is>
-          <t>appropriately</t>
-        </is>
-      </c>
-      <c r="QU1" s="1" t="inlineStr">
-        <is>
-          <t>computer</t>
-        </is>
-      </c>
-      <c r="QV1" s="1" t="inlineStr">
-        <is>
-          <t>considered</t>
-        </is>
-      </c>
-      <c r="QW1" s="1" t="inlineStr">
-        <is>
-          <t>differed</t>
-        </is>
-      </c>
-      <c r="QX1" s="1" t="inlineStr">
-        <is>
-          <t>salient</t>
-        </is>
-      </c>
-      <c r="QY1" s="1" t="inlineStr">
-        <is>
-          <t>fifty</t>
-        </is>
-      </c>
-      <c r="QZ1" s="1" t="inlineStr">
-        <is>
-          <t>game</t>
-        </is>
-      </c>
-      <c r="RA1" s="1" t="inlineStr">
-        <is>
-          <t>greater</t>
-        </is>
-      </c>
-      <c r="RB1" s="1" t="inlineStr">
-        <is>
-          <t>greatly</t>
-        </is>
-      </c>
-      <c r="RC1" s="1" t="inlineStr">
-        <is>
-          <t>knowledge</t>
-        </is>
-      </c>
-      <c r="RD1" s="1" t="inlineStr">
-        <is>
-          <t>newer</t>
-        </is>
-      </c>
-      <c r="RE1" s="1" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
-      </c>
-      <c r="RF1" s="1" t="inlineStr">
-        <is>
-          <t>psychosocial</t>
-        </is>
-      </c>
-      <c r="RG1" s="1" t="inlineStr">
-        <is>
-          <t>hypothesis</t>
-        </is>
-      </c>
-      <c r="RH1" s="1" t="inlineStr">
-        <is>
-          <t>demonstrate</t>
-        </is>
-      </c>
-      <c r="RI1" s="1" t="inlineStr">
-        <is>
-          <t>intake</t>
-        </is>
-      </c>
-      <c r="RJ1" s="1" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="RK1" s="1" t="inlineStr">
-        <is>
-          <t>established</t>
-        </is>
-      </c>
-      <c r="RL1" s="1" t="inlineStr">
-        <is>
-          <t>edition</t>
-        </is>
-      </c>
-      <c r="RM1" s="1" t="inlineStr">
-        <is>
-          <t>older</t>
-        </is>
-      </c>
-      <c r="RN1" s="1" t="inlineStr">
-        <is>
-          <t>peer</t>
-        </is>
-      </c>
-      <c r="RO1" s="1" t="inlineStr">
-        <is>
-          <t>confirmed</t>
-        </is>
-      </c>
-      <c r="RP1" s="1" t="inlineStr">
-        <is>
-          <t>practically</t>
-        </is>
-      </c>
-      <c r="RQ1" s="1" t="inlineStr">
-        <is>
-          <t>children-those</t>
-        </is>
-      </c>
-      <c r="RR1" s="1" t="inlineStr">
-        <is>
-          <t>and/or</t>
-        </is>
-      </c>
-      <c r="RS1" s="1" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="RT1" s="1" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="RU1" s="1" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="RV1" s="1" t="inlineStr">
-        <is>
-          <t>-were</t>
-        </is>
-      </c>
-      <c r="RW1" s="1" t="inlineStr">
-        <is>
-          <t>suffered</t>
-        </is>
-      </c>
-      <c r="RX1" s="1" t="inlineStr">
-        <is>
-          <t>known</t>
-        </is>
-      </c>
-      <c r="RY1" s="1" t="inlineStr">
-        <is>
-          <t>make</t>
-        </is>
-      </c>
-      <c r="RZ1" s="1" t="inlineStr">
-        <is>
-          <t>contributed</t>
-        </is>
-      </c>
-      <c r="SA1" s="1" t="inlineStr">
-        <is>
-          <t>lived</t>
-        </is>
-      </c>
-      <c r="SB1" s="1" t="inlineStr">
-        <is>
-          <t>overall</t>
-        </is>
-      </c>
-      <c r="SC1" s="1" t="inlineStr">
-        <is>
-          <t>addition</t>
-        </is>
-      </c>
-      <c r="SD1" s="1" t="inlineStr">
-        <is>
-          <t>examine</t>
-        </is>
-      </c>
-      <c r="SE1" s="1" t="inlineStr">
-        <is>
-          <t>judging</t>
-        </is>
-      </c>
-      <c r="SF1" s="1" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
       <c r="SG1" s="1" t="inlineStr">
         <is>
-          <t>8th</t>
+          <t>educating</t>
         </is>
       </c>
       <c r="SH1" s="1" t="inlineStr">
         <is>
-          <t>adjustments</t>
+          <t>canonical</t>
         </is>
       </c>
       <c r="SI1" s="1" t="inlineStr">
         <is>
-          <t>appeared</t>
+          <t>combines</t>
         </is>
       </c>
       <c r="SJ1" s="1" t="inlineStr">
         <is>
-          <t>assumed</t>
+          <t>become</t>
         </is>
       </c>
       <c r="SK1" s="1" t="inlineStr">
         <is>
-          <t>believed</t>
+          <t>theoretica</t>
         </is>
       </c>
       <c r="SL1" s="1" t="inlineStr">
         <is>
-          <t>continues</t>
+          <t>assimilates</t>
         </is>
       </c>
       <c r="SM1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>assert</t>
         </is>
       </c>
       <c r="SN1" s="1" t="inlineStr">
         <is>
-          <t>crucial</t>
+          <t>already</t>
         </is>
       </c>
       <c r="SO1" s="1" t="inlineStr">
         <is>
-          <t>halted</t>
+          <t>top</t>
         </is>
       </c>
       <c r="SP1" s="1" t="inlineStr">
         <is>
-          <t>helping</t>
+          <t>exemplary</t>
         </is>
       </c>
       <c r="SQ1" s="1" t="inlineStr">
         <is>
-          <t>incident</t>
+          <t>expectations</t>
         </is>
       </c>
       <c r="SR1" s="1" t="inlineStr">
         <is>
-          <t>intentionally</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="SS1" s="1" t="inlineStr">
         <is>
-          <t>helped</t>
+          <t>genmeral</t>
         </is>
       </c>
       <c r="ST1" s="1" t="inlineStr">
         <is>
-          <t>interview</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="SU1" s="1" t="inlineStr">
         <is>
-          <t>interviewed</t>
+          <t>popular</t>
         </is>
       </c>
       <c r="SV1" s="1" t="inlineStr">
         <is>
-          <t>feeling</t>
+          <t>long-term</t>
         </is>
       </c>
       <c r="SW1" s="1" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>equally</t>
         </is>
       </c>
       <c r="SX1" s="1" t="inlineStr">
         <is>
-          <t>distressing</t>
+          <t>invaluable</t>
         </is>
       </c>
       <c r="SY1" s="1" t="inlineStr">
         <is>
-          <t>despaired</t>
+          <t>extensive</t>
         </is>
       </c>
       <c r="SZ1" s="1" t="inlineStr">
         <is>
-          <t>equally</t>
+          <t>requires</t>
         </is>
       </c>
       <c r="TA1" s="1" t="inlineStr">
         <is>
-          <t>exemplary</t>
+          <t>acdemic</t>
         </is>
       </c>
       <c r="TB1" s="1" t="inlineStr">
         <is>
+          <t>dimensions</t>
+        </is>
+      </c>
+      <c r="TC1" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="TD1" s="1" t="inlineStr">
+        <is>
+          <t>working-who</t>
+        </is>
+      </c>
+      <c r="TE1" s="1" t="inlineStr">
+        <is>
+          <t>whole-group</t>
+        </is>
+      </c>
+      <c r="TF1" s="1" t="inlineStr">
+        <is>
+          <t>way</t>
+        </is>
+      </c>
+      <c r="TG1" s="1" t="inlineStr">
+        <is>
+          <t>want</t>
+        </is>
+      </c>
+      <c r="TH1" s="1" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="TI1" s="1" t="inlineStr">
+        <is>
+          <t>teachers-pre-service</t>
+        </is>
+      </c>
+      <c r="TJ1" s="1" t="inlineStr">
+        <is>
+          <t>takes</t>
+        </is>
+      </c>
+      <c r="TK1" s="1" t="inlineStr">
+        <is>
+          <t>skills</t>
+        </is>
+      </c>
+      <c r="TL1" s="1" t="inlineStr">
+        <is>
+          <t>rare</t>
+        </is>
+      </c>
+      <c r="TM1" s="1" t="inlineStr">
+        <is>
+          <t>felt</t>
+        </is>
+      </c>
+      <c r="TN1" s="1" t="inlineStr">
+        <is>
+          <t>qualities</t>
+        </is>
+      </c>
+      <c r="TO1" s="1" t="inlineStr">
+        <is>
+          <t>practitioners</t>
+        </is>
+      </c>
+      <c r="TP1" s="1" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="TQ1" s="1" t="inlineStr">
+        <is>
+          <t>observation</t>
+        </is>
+      </c>
+      <c r="TR1" s="1" t="inlineStr">
+        <is>
+          <t>moving</t>
+        </is>
+      </c>
+      <c r="TS1" s="1" t="inlineStr">
+        <is>
+          <t>leads</t>
+        </is>
+      </c>
+      <c r="TT1" s="1" t="inlineStr">
+        <is>
+          <t>in-depth</t>
+        </is>
+      </c>
+      <c r="TU1" s="1" t="inlineStr">
+        <is>
           <t>ideas</t>
         </is>
       </c>
-      <c r="TC1" s="1" t="inlineStr">
-        <is>
-          <t>felt</t>
-        </is>
-      </c>
-      <c r="TD1" s="1" t="inlineStr">
+      <c r="TV1" s="1" t="inlineStr">
+        <is>
+          <t>hone</t>
+        </is>
+      </c>
+      <c r="TW1" s="1" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="TX1" s="1" t="inlineStr">
         <is>
           <t>framing</t>
         </is>
       </c>
-      <c r="TE1" s="1" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="TF1" s="1" t="inlineStr">
-        <is>
-          <t>hone</t>
-        </is>
-      </c>
-      <c r="TG1" s="1" t="inlineStr">
-        <is>
-          <t>extensive</t>
-        </is>
-      </c>
-      <c r="TH1" s="1" t="inlineStr">
-        <is>
-          <t>leads</t>
-        </is>
-      </c>
-      <c r="TI1" s="1" t="inlineStr">
-        <is>
-          <t>in-depth</t>
-        </is>
-      </c>
-      <c r="TJ1" s="1" t="inlineStr">
-        <is>
-          <t>invaluable</t>
-        </is>
-      </c>
-      <c r="TK1" s="1" t="inlineStr">
+      <c r="TY1" s="1" t="inlineStr">
+        <is>
+          <t>though</t>
+        </is>
+      </c>
+      <c r="TZ1" s="1" t="inlineStr">
+        <is>
+          <t>discusses</t>
+        </is>
+      </c>
+      <c r="UA1" s="1" t="inlineStr">
+        <is>
+          <t>simultaneously</t>
+        </is>
+      </c>
+      <c r="UB1" s="1" t="inlineStr">
+        <is>
+          <t>occur</t>
+        </is>
+      </c>
+      <c r="UC1" s="1" t="inlineStr">
+        <is>
+          <t>attributions</t>
+        </is>
+      </c>
+      <c r="UD1" s="1" t="inlineStr">
         <is>
           <t>university-based</t>
         </is>
       </c>
-      <c r="TL1" s="1" t="inlineStr">
-        <is>
-          <t>moving</t>
-        </is>
-      </c>
-      <c r="TM1" s="1" t="inlineStr">
-        <is>
-          <t>observation</t>
-        </is>
-      </c>
-      <c r="TN1" s="1" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="TO1" s="1" t="inlineStr">
-        <is>
-          <t>practitioners</t>
-        </is>
-      </c>
-      <c r="TP1" s="1" t="inlineStr">
-        <is>
-          <t>qualities</t>
-        </is>
-      </c>
-      <c r="TQ1" s="1" t="inlineStr">
-        <is>
-          <t>rare</t>
-        </is>
-      </c>
-      <c r="TR1" s="1" t="inlineStr">
-        <is>
-          <t>requires</t>
-        </is>
-      </c>
-      <c r="TS1" s="1" t="inlineStr">
+      <c r="UE1" s="1" t="inlineStr">
         <is>
           <t>could</t>
         </is>
       </c>
-      <c r="TT1" s="1" t="inlineStr">
+      <c r="UF1" s="1" t="inlineStr">
+        <is>
+          <t>enough</t>
+        </is>
+      </c>
+      <c r="UG1" s="1" t="inlineStr">
+        <is>
+          <t>lack</t>
+        </is>
+      </c>
+      <c r="UH1" s="1" t="inlineStr">
+        <is>
+          <t>attribute</t>
+        </is>
+      </c>
+      <c r="UI1" s="1" t="inlineStr">
+        <is>
+          <t>stabilizing</t>
+        </is>
+      </c>
+      <c r="UJ1" s="1" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="UK1" s="1" t="inlineStr">
+        <is>
+          <t>emerges</t>
+        </is>
+      </c>
+      <c r="UL1" s="1" t="inlineStr">
+        <is>
+          <t>places</t>
+        </is>
+      </c>
+      <c r="UM1" s="1" t="inlineStr">
+        <is>
+          <t>parental</t>
+        </is>
+      </c>
+      <c r="UN1" s="1" t="inlineStr">
+        <is>
+          <t>vulnerable</t>
+        </is>
+      </c>
+      <c r="UO1" s="1" t="inlineStr">
+        <is>
+          <t>next</t>
+        </is>
+      </c>
+      <c r="UP1" s="1" t="inlineStr">
+        <is>
+          <t>delineates</t>
+        </is>
+      </c>
+      <c r="UQ1" s="1" t="inlineStr">
+        <is>
+          <t>counter</t>
+        </is>
+      </c>
+      <c r="UR1" s="1" t="inlineStr">
+        <is>
+          <t>call</t>
+        </is>
+      </c>
+      <c r="US1" s="1" t="inlineStr">
+        <is>
+          <t>infrastructure</t>
+        </is>
+      </c>
+      <c r="UT1" s="1" t="inlineStr">
+        <is>
+          <t>contends</t>
+        </is>
+      </c>
+      <c r="UU1" s="1" t="inlineStr">
+        <is>
+          <t>clarion</t>
+        </is>
+      </c>
+      <c r="UV1" s="1" t="inlineStr">
+        <is>
+          <t>involvement</t>
+        </is>
+      </c>
+      <c r="UW1" s="1" t="inlineStr">
         <is>
           <t>attention</t>
         </is>
       </c>
-      <c r="TU1" s="1" t="inlineStr">
-        <is>
-          <t>educating</t>
-        </is>
-      </c>
-      <c r="TV1" s="1" t="inlineStr">
-        <is>
-          <t>involvement</t>
-        </is>
-      </c>
-      <c r="TW1" s="1" t="inlineStr">
-        <is>
-          <t>assert</t>
-        </is>
-      </c>
-      <c r="TX1" s="1" t="inlineStr">
-        <is>
-          <t>already</t>
-        </is>
-      </c>
-      <c r="TY1" s="1" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="TZ1" s="1" t="inlineStr">
-        <is>
-          <t>canonical</t>
-        </is>
-      </c>
-      <c r="UA1" s="1" t="inlineStr">
-        <is>
-          <t>places</t>
-        </is>
-      </c>
-      <c r="UB1" s="1" t="inlineStr">
-        <is>
-          <t>parental</t>
-        </is>
-      </c>
-      <c r="UC1" s="1" t="inlineStr">
-        <is>
-          <t>occur</t>
-        </is>
-      </c>
-      <c r="UD1" s="1" t="inlineStr">
-        <is>
-          <t>next</t>
-        </is>
-      </c>
-      <c r="UE1" s="1" t="inlineStr">
+      <c r="UX1" s="1" t="inlineStr">
+        <is>
+          <t>choicescfor</t>
+        </is>
+      </c>
+      <c r="UY1" s="1" t="inlineStr">
         <is>
           <t>losing</t>
         </is>
       </c>
-      <c r="UF1" s="1" t="inlineStr">
-        <is>
-          <t>infrastructure</t>
-        </is>
-      </c>
-      <c r="UG1" s="1" t="inlineStr">
-        <is>
-          <t>combines</t>
-        </is>
-      </c>
-      <c r="UH1" s="1" t="inlineStr">
-        <is>
-          <t>skills</t>
-        </is>
-      </c>
-      <c r="UI1" s="1" t="inlineStr">
+      <c r="UZ1" s="1" t="inlineStr">
         <is>
           <t>improvement</t>
         </is>
       </c>
-      <c r="UJ1" s="1" t="inlineStr">
-        <is>
-          <t>discusses</t>
-        </is>
-      </c>
-      <c r="UK1" s="1" t="inlineStr">
-        <is>
-          <t>delineates</t>
-        </is>
-      </c>
-      <c r="UL1" s="1" t="inlineStr">
-        <is>
-          <t>contends</t>
-        </is>
-      </c>
-      <c r="UM1" s="1" t="inlineStr">
-        <is>
-          <t>clarion</t>
-        </is>
-      </c>
-      <c r="UN1" s="1" t="inlineStr">
-        <is>
-          <t>call</t>
-        </is>
-      </c>
-      <c r="UO1" s="1" t="inlineStr">
-        <is>
-          <t>assimilates</t>
-        </is>
-      </c>
-      <c r="UP1" s="1" t="inlineStr">
-        <is>
-          <t>vulnerable</t>
-        </is>
-      </c>
-      <c r="UQ1" s="1" t="inlineStr">
-        <is>
-          <t>simultaneously</t>
-        </is>
-      </c>
-      <c r="UR1" s="1" t="inlineStr">
-        <is>
-          <t>become</t>
-        </is>
-      </c>
-      <c r="US1" s="1" t="inlineStr">
-        <is>
-          <t>takes</t>
-        </is>
-      </c>
-      <c r="UT1" s="1" t="inlineStr">
-        <is>
-          <t>working-who</t>
-        </is>
-      </c>
-      <c r="UU1" s="1" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="UV1" s="1" t="inlineStr">
-        <is>
-          <t>stabilizing</t>
-        </is>
-      </c>
-      <c r="UW1" s="1" t="inlineStr">
-        <is>
-          <t>teachers-pre-service</t>
-        </is>
-      </c>
-      <c r="UX1" s="1" t="inlineStr">
-        <is>
-          <t>dimensions</t>
-        </is>
-      </c>
-      <c r="UY1" s="1" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
-      <c r="UZ1" s="1" t="inlineStr">
-        <is>
-          <t>whole-group</t>
-        </is>
-      </c>
       <c r="VA1" s="1" t="inlineStr">
         <is>
-          <t>way</t>
+          <t>participated</t>
         </is>
       </c>
       <c r="VB1" s="1" t="inlineStr">
         <is>
-          <t>want</t>
+          <t>listed</t>
         </is>
       </c>
       <c r="VC1" s="1" t="inlineStr">
         <is>
-          <t>though</t>
+          <t>reflect</t>
         </is>
       </c>
       <c r="VD1" s="1" t="inlineStr">
         <is>
+          <t>name-calling</t>
+        </is>
+      </c>
+      <c r="VE1" s="1" t="inlineStr">
+        <is>
+          <t>participants</t>
+        </is>
+      </c>
+      <c r="VF1" s="1" t="inlineStr">
+        <is>
+          <t>perpetrators</t>
+        </is>
+      </c>
+      <c r="VG1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
+        </is>
+      </c>
+      <c r="VH1" s="1" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="VI1" s="1" t="inlineStr">
+        <is>
+          <t>race/ethnicity</t>
+        </is>
+      </c>
+      <c r="VJ1" s="1" t="inlineStr">
+        <is>
+          <t>region</t>
+        </is>
+      </c>
+      <c r="VK1" s="1" t="inlineStr">
+        <is>
+          <t>repeated</t>
+        </is>
+      </c>
+      <c r="VL1" s="1" t="inlineStr">
+        <is>
+          <t>retrospective</t>
+        </is>
+      </c>
+      <c r="VM1" s="1" t="inlineStr">
+        <is>
+          <t>significantly</t>
+        </is>
+      </c>
+      <c r="VN1" s="1" t="inlineStr">
+        <is>
+          <t>latter</t>
+        </is>
+      </c>
+      <c r="VO1" s="1" t="inlineStr">
+        <is>
+          <t>profoundly</t>
+        </is>
+      </c>
+      <c r="VP1" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="VQ1" s="1" t="inlineStr">
+        <is>
+          <t>kindergarten</t>
+        </is>
+      </c>
+      <c r="VR1" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="VS1" s="1" t="inlineStr">
+        <is>
+          <t>selection</t>
+        </is>
+      </c>
+      <c r="VT1" s="1" t="inlineStr">
+        <is>
+          <t>paths</t>
+        </is>
+      </c>
+      <c r="VU1" s="1" t="inlineStr">
+        <is>
+          <t>themes</t>
+        </is>
+      </c>
+      <c r="VV1" s="1" t="inlineStr">
+        <is>
+          <t>together</t>
+        </is>
+      </c>
+      <c r="VW1" s="1" t="inlineStr">
+        <is>
+          <t>toward</t>
+        </is>
+      </c>
+      <c r="VX1" s="1" t="inlineStr">
+        <is>
+          <t>wish</t>
+        </is>
+      </c>
+      <c r="VY1" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="VZ1" s="1" t="inlineStr">
+        <is>
+          <t>precocious</t>
+        </is>
+      </c>
+      <c r="WA1" s="1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+      <c r="WB1" s="1" t="inlineStr">
+        <is>
+          <t>geographical</t>
+        </is>
+      </c>
+      <c r="WC1" s="1" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="WD1" s="1" t="inlineStr">
+        <is>
+          <t>appearance</t>
+        </is>
+      </c>
+      <c r="WE1" s="1" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="WF1" s="1" t="inlineStr">
+        <is>
+          <t>common</t>
+        </is>
+      </c>
+      <c r="WG1" s="1" t="inlineStr">
+        <is>
+          <t>eighth</t>
+        </is>
+      </c>
+      <c r="WH1" s="1" t="inlineStr">
+        <is>
           <t>emotional</t>
         </is>
       </c>
-      <c r="VE1" s="1" t="inlineStr">
-        <is>
-          <t>eighth</t>
-        </is>
-      </c>
-      <c r="VF1" s="1" t="inlineStr">
+      <c r="WI1" s="1" t="inlineStr">
+        <is>
+          <t>explored</t>
+        </is>
+      </c>
+      <c r="WJ1" s="1" t="inlineStr">
         <is>
           <t>females</t>
         </is>
       </c>
-      <c r="VG1" s="1" t="inlineStr">
-        <is>
-          <t>common</t>
-        </is>
-      </c>
-      <c r="VH1" s="1" t="inlineStr">
-        <is>
-          <t>city</t>
-        </is>
-      </c>
-      <c r="VI1" s="1" t="inlineStr">
-        <is>
-          <t>explored</t>
-        </is>
-      </c>
-      <c r="VJ1" s="1" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="VK1" s="1" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="VL1" s="1" t="inlineStr">
-        <is>
-          <t>appearance</t>
-        </is>
-      </c>
-      <c r="VM1" s="1" t="inlineStr">
-        <is>
-          <t>kindergarten</t>
-        </is>
-      </c>
-      <c r="VN1" s="1" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="VO1" s="1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="VP1" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="VQ1" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="VR1" s="1" t="inlineStr">
-        <is>
-          <t>wish</t>
-        </is>
-      </c>
-      <c r="VS1" s="1" t="inlineStr">
-        <is>
-          <t>toward</t>
-        </is>
-      </c>
-      <c r="VT1" s="1" t="inlineStr">
-        <is>
-          <t>geographical</t>
-        </is>
-      </c>
-      <c r="VU1" s="1" t="inlineStr">
-        <is>
-          <t>name-calling</t>
-        </is>
-      </c>
-      <c r="VV1" s="1" t="inlineStr">
-        <is>
-          <t>latter</t>
-        </is>
-      </c>
-      <c r="VW1" s="1" t="inlineStr">
+      <c r="WK1" s="1" t="inlineStr">
+        <is>
+          <t>sixty-seven</t>
+        </is>
+      </c>
+      <c r="WL1" s="1" t="inlineStr">
+        <is>
+          <t>successful</t>
+        </is>
+      </c>
+      <c r="WM1" s="1" t="inlineStr">
+        <is>
+          <t>states</t>
+        </is>
+      </c>
+      <c r="WN1" s="1" t="inlineStr">
+        <is>
+          <t>potential</t>
+        </is>
+      </c>
+      <c r="WO1" s="1" t="inlineStr">
+        <is>
+          <t>contributors</t>
+        </is>
+      </c>
+      <c r="WP1" s="1" t="inlineStr">
+        <is>
+          <t>creating</t>
+        </is>
+      </c>
+      <c r="WQ1" s="1" t="inlineStr">
+        <is>
+          <t>examining</t>
+        </is>
+      </c>
+      <c r="WR1" s="1" t="inlineStr">
+        <is>
+          <t>focusing</t>
+        </is>
+      </c>
+      <c r="WS1" s="1" t="inlineStr">
+        <is>
+          <t>influenced</t>
+        </is>
+      </c>
+      <c r="WT1" s="1" t="inlineStr">
+        <is>
+          <t>investigation</t>
+        </is>
+      </c>
+      <c r="WU1" s="1" t="inlineStr">
+        <is>
+          <t>leadership</t>
+        </is>
+      </c>
+      <c r="WV1" s="1" t="inlineStr">
+        <is>
+          <t>recruitment</t>
+        </is>
+      </c>
+      <c r="WW1" s="1" t="inlineStr">
+        <is>
+          <t>chronicling</t>
+        </is>
+      </c>
+      <c r="WX1" s="1" t="inlineStr">
+        <is>
+          <t>self-improvement</t>
+        </is>
+      </c>
+      <c r="WY1" s="1" t="inlineStr">
+        <is>
+          <t>settings</t>
+        </is>
+      </c>
+      <c r="WZ1" s="1" t="inlineStr">
+        <is>
+          <t>striving</t>
+        </is>
+      </c>
+      <c r="XA1" s="1" t="inlineStr">
+        <is>
+          <t>suggestions</t>
+        </is>
+      </c>
+      <c r="XB1" s="1" t="inlineStr">
+        <is>
+          <t>uncovered</t>
+        </is>
+      </c>
+      <c r="XC1" s="1" t="inlineStr">
+        <is>
+          <t>well-rounded</t>
+        </is>
+      </c>
+      <c r="XD1" s="1" t="inlineStr">
+        <is>
+          <t>adolescent</t>
+        </is>
+      </c>
+      <c r="XE1" s="1" t="inlineStr">
+        <is>
+          <t>community</t>
+        </is>
+      </c>
+      <c r="XF1" s="1" t="inlineStr">
+        <is>
+          <t>campus</t>
+        </is>
+      </c>
+      <c r="XG1" s="1" t="inlineStr">
+        <is>
+          <t>teasing</t>
+        </is>
+      </c>
+      <c r="XH1" s="1" t="inlineStr">
+        <is>
+          <t>stanley</t>
+        </is>
+      </c>
+      <c r="XI1" s="1" t="inlineStr">
+        <is>
+          <t>terms</t>
+        </is>
+      </c>
+      <c r="XJ1" s="1" t="inlineStr">
+        <is>
+          <t>times</t>
+        </is>
+      </c>
+      <c r="XK1" s="1" t="inlineStr">
+        <is>
+          <t>u.s.</t>
+        </is>
+      </c>
+      <c r="XL1" s="1" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="XM1" s="1" t="inlineStr">
+        <is>
+          <t>since</t>
+        </is>
+      </c>
+      <c r="XN1" s="1" t="inlineStr">
+        <is>
+          <t>specialists</t>
+        </is>
+      </c>
+      <c r="XO1" s="1" t="inlineStr">
         <is>
           <t>participating</t>
         </is>
       </c>
-      <c r="VX1" s="1" t="inlineStr">
-        <is>
-          <t>terms</t>
-        </is>
-      </c>
-      <c r="VY1" s="1" t="inlineStr">
-        <is>
-          <t>teasing</t>
-        </is>
-      </c>
-      <c r="VZ1" s="1" t="inlineStr">
-        <is>
-          <t>u.s.</t>
-        </is>
-      </c>
-      <c r="WA1" s="1" t="inlineStr">
-        <is>
-          <t>states</t>
-        </is>
-      </c>
-      <c r="WB1" s="1" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="WC1" s="1" t="inlineStr">
-        <is>
-          <t>sixty-seven</t>
-        </is>
-      </c>
-      <c r="WD1" s="1" t="inlineStr">
-        <is>
-          <t>significantly</t>
-        </is>
-      </c>
-      <c r="WE1" s="1" t="inlineStr">
-        <is>
-          <t>retrospective</t>
-        </is>
-      </c>
-      <c r="WF1" s="1" t="inlineStr">
-        <is>
-          <t>repeated</t>
-        </is>
-      </c>
-      <c r="WG1" s="1" t="inlineStr">
-        <is>
-          <t>region</t>
-        </is>
-      </c>
-      <c r="WH1" s="1" t="inlineStr">
-        <is>
-          <t>race/ethnicity</t>
-        </is>
-      </c>
-      <c r="WI1" s="1" t="inlineStr">
-        <is>
-          <t>perpetrators</t>
-        </is>
-      </c>
-      <c r="WJ1" s="1" t="inlineStr">
-        <is>
-          <t>percentage</t>
-        </is>
-      </c>
-      <c r="WK1" s="1" t="inlineStr">
-        <is>
-          <t>percent</t>
-        </is>
-      </c>
-      <c r="WL1" s="1" t="inlineStr">
-        <is>
-          <t>participated</t>
-        </is>
-      </c>
-      <c r="WM1" s="1" t="inlineStr">
-        <is>
-          <t>participants</t>
-        </is>
-      </c>
-      <c r="WN1" s="1" t="inlineStr">
-        <is>
-          <t>listed</t>
-        </is>
-      </c>
-      <c r="WO1" s="1" t="inlineStr">
-        <is>
-          <t>size</t>
-        </is>
-      </c>
-      <c r="WP1" s="1" t="inlineStr">
-        <is>
-          <t>expectations</t>
-        </is>
-      </c>
-      <c r="WQ1" s="1" t="inlineStr">
-        <is>
-          <t>choicescfor</t>
-        </is>
-      </c>
-      <c r="WR1" s="1" t="inlineStr">
+      <c r="XP1" s="1" t="inlineStr">
+        <is>
+          <t>still</t>
+        </is>
+      </c>
+      <c r="XQ1" s="1" t="inlineStr">
+        <is>
+          <t>called</t>
+        </is>
+      </c>
+      <c r="XR1" s="1" t="inlineStr">
+        <is>
+          <t>providing</t>
+        </is>
+      </c>
+      <c r="XS1" s="1" t="inlineStr">
+        <is>
+          <t>taken</t>
+        </is>
+      </c>
+      <c r="XT1" s="1" t="inlineStr">
+        <is>
+          <t>utilizing</t>
+        </is>
+      </c>
+      <c r="XU1" s="1" t="inlineStr">
+        <is>
+          <t>youth</t>
+        </is>
+      </c>
+      <c r="XV1" s="1" t="inlineStr">
+        <is>
+          <t>achievers</t>
+        </is>
+      </c>
+      <c r="XW1" s="1" t="inlineStr">
+        <is>
+          <t>athletics</t>
+        </is>
+      </c>
+      <c r="XX1" s="1" t="inlineStr">
+        <is>
+          <t>bridge</t>
+        </is>
+      </c>
+      <c r="XY1" s="1" t="inlineStr">
+        <is>
+          <t>rich</t>
+        </is>
+      </c>
+      <c r="XZ1" s="1" t="inlineStr">
+        <is>
+          <t>talent</t>
+        </is>
+      </c>
+      <c r="YA1" s="1" t="inlineStr">
+        <is>
+          <t>promoted</t>
+        </is>
+      </c>
+      <c r="YB1" s="1" t="inlineStr">
+        <is>
+          <t>attitudes</t>
+        </is>
+      </c>
+      <c r="YC1" s="1" t="inlineStr">
+        <is>
+          <t>concerned</t>
+        </is>
+      </c>
+      <c r="YD1" s="1" t="inlineStr">
+        <is>
+          <t>complexity</t>
+        </is>
+      </c>
+      <c r="YE1" s="1" t="inlineStr">
+        <is>
+          <t>able</t>
+        </is>
+      </c>
+      <c r="YF1" s="1" t="inlineStr">
+        <is>
+          <t>characterize</t>
+        </is>
+      </c>
+      <c r="YG1" s="1" t="inlineStr">
+        <is>
+          <t>browsing</t>
+        </is>
+      </c>
+      <c r="YH1" s="1" t="inlineStr">
+        <is>
+          <t>browsed</t>
+        </is>
+      </c>
+      <c r="YI1" s="1" t="inlineStr">
+        <is>
+          <t>approach</t>
+        </is>
+      </c>
+      <c r="YJ1" s="1" t="inlineStr">
+        <is>
+          <t>bookstore</t>
+        </is>
+      </c>
+      <c r="YK1" s="1" t="inlineStr">
+        <is>
+          <t>mathematicians</t>
+        </is>
+      </c>
+      <c r="YL1" s="1" t="inlineStr">
+        <is>
+          <t>mathematically</t>
+        </is>
+      </c>
+      <c r="YM1" s="1" t="inlineStr">
+        <is>
+          <t>concluded</t>
+        </is>
+      </c>
+      <c r="YN1" s="1" t="inlineStr">
+        <is>
+          <t>julian</t>
+        </is>
+      </c>
+      <c r="YO1" s="1" t="inlineStr">
+        <is>
+          <t>creative</t>
+        </is>
+      </c>
+      <c r="YP1" s="1" t="inlineStr">
+        <is>
+          <t>assume</t>
+        </is>
+      </c>
+      <c r="YQ1" s="1" t="inlineStr">
+        <is>
+          <t>demonstrating</t>
+        </is>
+      </c>
+      <c r="YR1" s="1" t="inlineStr">
+        <is>
+          <t>insights</t>
+        </is>
+      </c>
+      <c r="YS1" s="1" t="inlineStr">
+        <is>
+          <t>illustrates</t>
+        </is>
+      </c>
+      <c r="YT1" s="1" t="inlineStr">
+        <is>
+          <t>drs</t>
+        </is>
+      </c>
+      <c r="YU1" s="1" t="inlineStr">
+        <is>
+          <t>effectiveness</t>
+        </is>
+      </c>
+      <c r="YV1" s="1" t="inlineStr">
+        <is>
+          <t>characterisitics</t>
+        </is>
+      </c>
+      <c r="YW1" s="1" t="inlineStr">
+        <is>
+          <t>founding</t>
+        </is>
+      </c>
+      <c r="YX1" s="1" t="inlineStr">
+        <is>
+          <t>former</t>
+        </is>
+      </c>
+      <c r="YY1" s="1" t="inlineStr">
+        <is>
+          <t>differentiation</t>
+        </is>
+      </c>
+      <c r="YZ1" s="1" t="inlineStr">
+        <is>
+          <t>cooperation</t>
+        </is>
+      </c>
+      <c r="ZA1" s="1" t="inlineStr">
+        <is>
+          <t>highlighting</t>
+        </is>
+      </c>
+      <c r="ZB1" s="1" t="inlineStr">
+        <is>
+          <t>personally</t>
+        </is>
+      </c>
+      <c r="ZC1" s="1" t="inlineStr">
+        <is>
+          <t>mentors</t>
+        </is>
+      </c>
+      <c r="ZD1" s="1" t="inlineStr">
+        <is>
+          <t>particular</t>
+        </is>
+      </c>
+      <c r="ZE1" s="1" t="inlineStr">
+        <is>
+          <t>offering</t>
+        </is>
+      </c>
+      <c r="ZF1" s="1" t="inlineStr">
+        <is>
+          <t>multicase</t>
+        </is>
+      </c>
+      <c r="ZG1" s="1" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="ZH1" s="1" t="inlineStr">
         <is>
           <t>feasability</t>
         </is>
       </c>
-      <c r="WS1" s="1" t="inlineStr">
-        <is>
-          <t>well-rounded</t>
-        </is>
-      </c>
-      <c r="WT1" s="1" t="inlineStr">
-        <is>
-          <t>drs</t>
-        </is>
-      </c>
-      <c r="WU1" s="1" t="inlineStr">
-        <is>
-          <t>uncovered</t>
-        </is>
-      </c>
-      <c r="WV1" s="1" t="inlineStr">
-        <is>
-          <t>suggestions</t>
-        </is>
-      </c>
-      <c r="WW1" s="1" t="inlineStr">
-        <is>
-          <t>striving</t>
-        </is>
-      </c>
-      <c r="WX1" s="1" t="inlineStr">
-        <is>
-          <t>settings</t>
-        </is>
-      </c>
-      <c r="WY1" s="1" t="inlineStr">
-        <is>
-          <t>self-improvement</t>
-        </is>
-      </c>
-      <c r="WZ1" s="1" t="inlineStr">
-        <is>
-          <t>recruitment</t>
-        </is>
-      </c>
-      <c r="XA1" s="1" t="inlineStr">
-        <is>
-          <t>potential</t>
-        </is>
-      </c>
-      <c r="XB1" s="1" t="inlineStr">
-        <is>
-          <t>leadership</t>
-        </is>
-      </c>
-      <c r="XC1" s="1" t="inlineStr">
-        <is>
-          <t>investigation</t>
-        </is>
-      </c>
-      <c r="XD1" s="1" t="inlineStr">
-        <is>
-          <t>influenced</t>
-        </is>
-      </c>
-      <c r="XE1" s="1" t="inlineStr">
-        <is>
-          <t>effectiveness</t>
-        </is>
-      </c>
-      <c r="XF1" s="1" t="inlineStr">
+      <c r="ZI1" s="1" t="inlineStr">
+        <is>
+          <t>observed</t>
+        </is>
+      </c>
+      <c r="ZJ1" s="1" t="inlineStr">
         <is>
           <t>entirety</t>
         </is>
       </c>
-      <c r="XG1" s="1" t="inlineStr">
-        <is>
-          <t>focusing</t>
-        </is>
-      </c>
-      <c r="XH1" s="1" t="inlineStr">
-        <is>
-          <t>demonstrating</t>
-        </is>
-      </c>
-      <c r="XI1" s="1" t="inlineStr">
-        <is>
-          <t>creative</t>
-        </is>
-      </c>
-      <c r="XJ1" s="1" t="inlineStr">
-        <is>
-          <t>cooperation</t>
-        </is>
-      </c>
-      <c r="XK1" s="1" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="XL1" s="1" t="inlineStr">
-        <is>
-          <t>long-term</t>
-        </is>
-      </c>
-      <c r="XM1" s="1" t="inlineStr">
-        <is>
-          <t>popular</t>
-        </is>
-      </c>
-      <c r="XN1" s="1" t="inlineStr">
-        <is>
-          <t>hard</t>
-        </is>
-      </c>
-      <c r="XO1" s="1" t="inlineStr">
-        <is>
-          <t>sex</t>
-        </is>
-      </c>
-      <c r="XP1" s="1" t="inlineStr">
-        <is>
-          <t>genmeral</t>
-        </is>
-      </c>
-      <c r="XQ1" s="1" t="inlineStr">
-        <is>
-          <t>theoretica</t>
-        </is>
-      </c>
-      <c r="XR1" s="1" t="inlineStr">
-        <is>
-          <t>we</t>
-        </is>
-      </c>
-      <c r="XS1" s="1" t="inlineStr">
-        <is>
-          <t>characterisitics</t>
-        </is>
-      </c>
-      <c r="XT1" s="1" t="inlineStr">
-        <is>
-          <t>adolescent</t>
-        </is>
-      </c>
-      <c r="XU1" s="1" t="inlineStr">
-        <is>
-          <t>acdemic</t>
-        </is>
-      </c>
-      <c r="XV1" s="1" t="inlineStr">
+      <c r="ZK1" s="1" t="inlineStr">
         <is>
           <t>1971</t>
         </is>
       </c>
-      <c r="XW1" s="1" t="inlineStr">
-        <is>
-          <t>able</t>
-        </is>
-      </c>
-      <c r="XX1" s="1" t="inlineStr">
-        <is>
-          <t>approach</t>
-        </is>
-      </c>
-      <c r="XY1" s="1" t="inlineStr">
-        <is>
-          <t>assume</t>
-        </is>
-      </c>
-      <c r="XZ1" s="1" t="inlineStr">
-        <is>
-          <t>examining</t>
-        </is>
-      </c>
-      <c r="YA1" s="1" t="inlineStr">
-        <is>
-          <t>creating</t>
-        </is>
-      </c>
-      <c r="YB1" s="1" t="inlineStr">
-        <is>
-          <t>counter</t>
-        </is>
-      </c>
-      <c r="YC1" s="1" t="inlineStr">
-        <is>
-          <t>contributors</t>
-        </is>
-      </c>
-      <c r="YD1" s="1" t="inlineStr">
-        <is>
-          <t>precocious</t>
-        </is>
-      </c>
-      <c r="YE1" s="1" t="inlineStr">
-        <is>
-          <t>profoundly</t>
-        </is>
-      </c>
-      <c r="YF1" s="1" t="inlineStr">
-        <is>
-          <t>reflect</t>
-        </is>
-      </c>
-      <c r="YG1" s="1" t="inlineStr">
-        <is>
-          <t>since</t>
-        </is>
-      </c>
-      <c r="YH1" s="1" t="inlineStr">
-        <is>
-          <t>specialists</t>
-        </is>
-      </c>
-      <c r="YI1" s="1" t="inlineStr">
-        <is>
-          <t>stanley</t>
-        </is>
-      </c>
-      <c r="YJ1" s="1" t="inlineStr">
-        <is>
-          <t>still</t>
-        </is>
-      </c>
-      <c r="YK1" s="1" t="inlineStr">
-        <is>
-          <t>successful</t>
-        </is>
-      </c>
-      <c r="YL1" s="1" t="inlineStr">
-        <is>
-          <t>taken</t>
-        </is>
-      </c>
-      <c r="YM1" s="1" t="inlineStr">
-        <is>
-          <t>talent</t>
-        </is>
-      </c>
-      <c r="YN1" s="1" t="inlineStr">
-        <is>
-          <t>utilizing</t>
-        </is>
-      </c>
-      <c r="YO1" s="1" t="inlineStr">
-        <is>
-          <t>youth</t>
-        </is>
-      </c>
-      <c r="YP1" s="1" t="inlineStr">
-        <is>
-          <t>themes</t>
-        </is>
-      </c>
-      <c r="YQ1" s="1" t="inlineStr">
-        <is>
-          <t>enough</t>
-        </is>
-      </c>
-      <c r="YR1" s="1" t="inlineStr">
-        <is>
-          <t>emerges</t>
-        </is>
-      </c>
-      <c r="YS1" s="1" t="inlineStr">
-        <is>
-          <t>paths</t>
-        </is>
-      </c>
-      <c r="YT1" s="1" t="inlineStr">
-        <is>
-          <t>mentors</t>
-        </is>
-      </c>
-      <c r="YU1" s="1" t="inlineStr">
-        <is>
-          <t>mathematicians</t>
-        </is>
-      </c>
-      <c r="YV1" s="1" t="inlineStr">
-        <is>
-          <t>bridge</t>
-        </is>
-      </c>
-      <c r="YW1" s="1" t="inlineStr">
-        <is>
-          <t>community</t>
-        </is>
-      </c>
-      <c r="YX1" s="1" t="inlineStr">
-        <is>
-          <t>former</t>
-        </is>
-      </c>
-      <c r="YY1" s="1" t="inlineStr">
-        <is>
-          <t>chronicling</t>
-        </is>
-      </c>
-      <c r="YZ1" s="1" t="inlineStr">
-        <is>
-          <t>founding</t>
-        </is>
-      </c>
-      <c r="ZA1" s="1" t="inlineStr">
-        <is>
-          <t>campus</t>
-        </is>
-      </c>
-      <c r="ZB1" s="1" t="inlineStr">
-        <is>
-          <t>called</t>
-        </is>
-      </c>
-      <c r="ZC1" s="1" t="inlineStr">
-        <is>
-          <t>athletics</t>
-        </is>
-      </c>
-      <c r="ZD1" s="1" t="inlineStr">
-        <is>
-          <t>mathematically</t>
-        </is>
-      </c>
-      <c r="ZE1" s="1" t="inlineStr">
-        <is>
-          <t>achievers</t>
-        </is>
-      </c>
-      <c r="ZF1" s="1" t="inlineStr">
-        <is>
-          <t>highlighting</t>
-        </is>
-      </c>
-      <c r="ZG1" s="1" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="ZH1" s="1" t="inlineStr">
-        <is>
-          <t>illustrates</t>
-        </is>
-      </c>
-      <c r="ZI1" s="1" t="inlineStr">
-        <is>
-          <t>insights</t>
-        </is>
-      </c>
-      <c r="ZJ1" s="1" t="inlineStr">
-        <is>
-          <t>julian</t>
-        </is>
-      </c>
-      <c r="ZK1" s="1" t="inlineStr">
-        <is>
-          <t>together</t>
-        </is>
-      </c>
       <c r="ZL1" s="1" t="inlineStr">
         <is>
-          <t>times</t>
+          <t>interesting</t>
         </is>
       </c>
       <c r="ZM1" s="1" t="inlineStr">
         <is>
-          <t>lack</t>
+          <t>improve</t>
         </is>
       </c>
       <c r="ZN1" s="1" t="inlineStr">
         <is>
-          <t>concerned</t>
+          <t>investigations</t>
         </is>
       </c>
       <c r="ZO1" s="1" t="inlineStr">
         <is>
-          <t>investigations</t>
+          <t>guide</t>
         </is>
       </c>
       <c r="ZP1" s="1" t="inlineStr">
         <is>
-          <t>interesting</t>
+          <t>five</t>
         </is>
       </c>
       <c r="ZQ1" s="1" t="inlineStr">
         <is>
-          <t>guide</t>
+          <t>relational</t>
         </is>
       </c>
       <c r="ZR1" s="1" t="inlineStr">
         <is>
-          <t>five</t>
+          <t>interpersonal</t>
         </is>
       </c>
       <c r="ZS1" s="1" t="inlineStr">
         <is>
-          <t>differentiation</t>
+          <t>perfectionistic</t>
         </is>
       </c>
       <c r="ZT1" s="1" t="inlineStr">
         <is>
-          <t>concluded</t>
+          <t>performance-avoidance</t>
         </is>
       </c>
       <c r="ZU1" s="1" t="inlineStr">
         <is>
-          <t>complexity</t>
+          <t>permissive</t>
         </is>
       </c>
       <c r="ZV1" s="1" t="inlineStr">
         <is>
-          <t>multicase</t>
+          <t>precursors</t>
         </is>
       </c>
       <c r="ZW1" s="1" t="inlineStr">
         <is>
-          <t>characterize</t>
+          <t>present</t>
         </is>
       </c>
       <c r="ZX1" s="1" t="inlineStr">
         <is>
-          <t>browsing</t>
+          <t>variables</t>
         </is>
       </c>
       <c r="ZY1" s="1" t="inlineStr">
         <is>
-          <t>browsed</t>
+          <t>phases</t>
         </is>
       </c>
       <c r="ZZ1" s="1" t="inlineStr">
         <is>
-          <t>bookstore</t>
+          <t>multiple-groups</t>
         </is>
       </c>
       <c r="AAA1" s="1" t="inlineStr">
         <is>
-          <t>attitudes</t>
+          <t>secure</t>
         </is>
       </c>
       <c r="AAB1" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>new</t>
         </is>
       </c>
       <c r="AAC1" s="1" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>turn</t>
         </is>
       </c>
       <c r="AAD1" s="1" t="inlineStr">
         <is>
-          <t>improve</t>
+          <t>intrapersonal</t>
         </is>
       </c>
       <c r="AAE1" s="1" t="inlineStr">
         <is>
-          <t>observed</t>
+          <t>test</t>
         </is>
       </c>
       <c r="AAF1" s="1" t="inlineStr">
         <is>
-          <t>rich</t>
+          <t>uninvolved</t>
         </is>
       </c>
       <c r="AAG1" s="1" t="inlineStr">
         <is>
-          <t>selection</t>
+          <t>tices</t>
         </is>
       </c>
       <c r="AAH1" s="1" t="inlineStr">
         <is>
-          <t>attributions</t>
+          <t>mastery</t>
         </is>
       </c>
       <c r="AAI1" s="1" t="inlineStr">
         <is>
-          <t>providing</t>
+          <t>questionnaires</t>
         </is>
       </c>
       <c r="AAJ1" s="1" t="inlineStr">
         <is>
-          <t>promoted</t>
+          <t>room</t>
         </is>
       </c>
       <c r="AAK1" s="1" t="inlineStr">
         <is>
-          <t>personally</t>
+          <t>reliability</t>
         </is>
       </c>
       <c r="AAL1" s="1" t="inlineStr">
         <is>
-          <t>particular</t>
+          <t>samples</t>
         </is>
       </c>
       <c r="AAM1" s="1" t="inlineStr">
         <is>
-          <t>attribute</t>
+          <t>scores</t>
         </is>
       </c>
       <c r="AAN1" s="1" t="inlineStr">
         <is>
-          <t>offering</t>
+          <t>instrument</t>
         </is>
       </c>
       <c r="AAO1" s="1" t="inlineStr">
         <is>
-          <t>room</t>
+          <t>useful</t>
         </is>
       </c>
       <c r="AAP1" s="1" t="inlineStr">
         <is>
+          <t>validated</t>
+        </is>
+      </c>
+      <c r="AAQ1" s="1" t="inlineStr">
+        <is>
+          <t>validation</t>
+        </is>
+      </c>
+      <c r="AAR1" s="1" t="inlineStr">
+        <is>
+          <t>interpreted</t>
+        </is>
+      </c>
+      <c r="AAS1" s="1" t="inlineStr">
+        <is>
+          <t>prac-</t>
+        </is>
+      </c>
+      <c r="AAT1" s="1" t="inlineStr">
+        <is>
           <t>authoritarian</t>
         </is>
       </c>
-      <c r="AAQ1" s="1" t="inlineStr">
-        <is>
-          <t>performance-avoidance</t>
-        </is>
-      </c>
-      <c r="AAR1" s="1" t="inlineStr">
-        <is>
-          <t>permissive</t>
-        </is>
-      </c>
-      <c r="AAS1" s="1" t="inlineStr">
-        <is>
-          <t>samples</t>
-        </is>
-      </c>
-      <c r="AAT1" s="1" t="inlineStr">
-        <is>
-          <t>reliability</t>
-        </is>
-      </c>
       <c r="AAU1" s="1" t="inlineStr">
         <is>
-          <t>questionnaires</t>
+          <t>authoritative</t>
         </is>
       </c>
       <c r="AAV1" s="1" t="inlineStr">
         <is>
-          <t>precursors</t>
+          <t>create</t>
         </is>
       </c>
       <c r="AAW1" s="1" t="inlineStr">
         <is>
-          <t>scores</t>
+          <t>influences</t>
         </is>
       </c>
       <c r="AAX1" s="1" t="inlineStr">
         <is>
-          <t>prac-</t>
+          <t>influencing</t>
         </is>
       </c>
       <c r="AAY1" s="1" t="inlineStr">
         <is>
+          <t>pilot</t>
+        </is>
+      </c>
+      <c r="AAZ1" s="1" t="inlineStr">
+        <is>
+          <t>interested</t>
+        </is>
+      </c>
+      <c r="ABA1" s="1" t="inlineStr">
+        <is>
           <t>rooms</t>
         </is>
       </c>
-      <c r="AAZ1" s="1" t="inlineStr">
-        <is>
-          <t>perfectionistic</t>
-        </is>
-      </c>
-      <c r="ABA1" s="1" t="inlineStr">
-        <is>
-          <t>authoritative</t>
-        </is>
-      </c>
       <c r="ABB1" s="1" t="inlineStr">
         <is>
+          <t>gate</t>
+        </is>
+      </c>
+      <c r="ABC1" s="1" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="ABD1" s="1" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="ABE1" s="1" t="inlineStr">
+        <is>
+          <t>distributed</t>
+        </is>
+      </c>
+      <c r="ABF1" s="1" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="ABG1" s="1" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="ABH1" s="1" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="ABI1" s="1" t="inlineStr">
+        <is>
+          <t>gathered</t>
+        </is>
+      </c>
+      <c r="ABJ1" s="1" t="inlineStr">
+        <is>
+          <t>domains</t>
+        </is>
+      </c>
+      <c r="ABK1" s="1" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="ABL1" s="1" t="inlineStr">
+        <is>
+          <t>first-phase</t>
+        </is>
+      </c>
+      <c r="ABM1" s="1" t="inlineStr">
+        <is>
+          <t>focused</t>
+        </is>
+      </c>
+      <c r="ABN1" s="1" t="inlineStr">
+        <is>
           <t>validity</t>
         </is>
       </c>
-      <c r="ABC1" s="1" t="inlineStr">
-        <is>
-          <t>multiple-groups</t>
-        </is>
-      </c>
-      <c r="ABD1" s="1" t="inlineStr">
-        <is>
-          <t>create</t>
-        </is>
-      </c>
-      <c r="ABE1" s="1" t="inlineStr">
-        <is>
-          <t>influences</t>
-        </is>
-      </c>
-      <c r="ABF1" s="1" t="inlineStr">
-        <is>
-          <t>mastery</t>
-        </is>
-      </c>
-      <c r="ABG1" s="1" t="inlineStr">
-        <is>
-          <t>phases</t>
-        </is>
-      </c>
-      <c r="ABH1" s="1" t="inlineStr">
-        <is>
-          <t>tices</t>
-        </is>
-      </c>
-      <c r="ABI1" s="1" t="inlineStr">
-        <is>
-          <t>influencing</t>
-        </is>
-      </c>
-      <c r="ABJ1" s="1" t="inlineStr">
-        <is>
-          <t>interpreted</t>
-        </is>
-      </c>
-      <c r="ABK1" s="1" t="inlineStr">
-        <is>
-          <t>useful</t>
-        </is>
-      </c>
-      <c r="ABL1" s="1" t="inlineStr">
-        <is>
-          <t>validated</t>
-        </is>
-      </c>
-      <c r="ABM1" s="1" t="inlineStr">
-        <is>
-          <t>validation</t>
-        </is>
-      </c>
-      <c r="ABN1" s="1" t="inlineStr">
-        <is>
-          <t>pilot</t>
-        </is>
-      </c>
       <c r="ABO1" s="1" t="inlineStr">
         <is>
-          <t>present</t>
+          <t>ail</t>
         </is>
       </c>
       <c r="ABP1" s="1" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>analyze</t>
         </is>
       </c>
       <c r="ABQ1" s="1" t="inlineStr">
@@ -4157,1157 +4157,972 @@
       </c>
       <c r="ABR1" s="1" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>readings</t>
         </is>
       </c>
       <c r="ABS1" s="1" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>might</t>
         </is>
       </c>
       <c r="ABT1" s="1" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>quizzes</t>
         </is>
       </c>
       <c r="ABU1" s="1" t="inlineStr">
         <is>
-          <t>relational</t>
+          <t>presentations</t>
         </is>
       </c>
       <c r="ABV1" s="1" t="inlineStr">
         <is>
-          <t>analyze</t>
+          <t>multigroup</t>
         </is>
       </c>
       <c r="ABW1" s="1" t="inlineStr">
         <is>
-          <t>variables</t>
+          <t>paced</t>
         </is>
       </c>
       <c r="ABX1" s="1" t="inlineStr">
         <is>
-          <t>uninvolved</t>
+          <t>move</t>
         </is>
       </c>
       <c r="ABY1" s="1" t="inlineStr">
         <is>
-          <t>turn</t>
+          <t>months</t>
         </is>
       </c>
       <c r="ABZ1" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>modify</t>
         </is>
       </c>
       <c r="ACA1" s="1" t="inlineStr">
         <is>
-          <t>secure</t>
+          <t>possible</t>
         </is>
       </c>
       <c r="ACB1" s="1" t="inlineStr">
         <is>
-          <t>distributed</t>
+          <t>covered</t>
         </is>
       </c>
       <c r="ACC1" s="1" t="inlineStr">
         <is>
-          <t>domains</t>
+          <t>relationship</t>
         </is>
       </c>
       <c r="ACD1" s="1" t="inlineStr">
         <is>
-          <t>ail</t>
+          <t>administered</t>
         </is>
       </c>
       <c r="ACE1" s="1" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>eighty</t>
         </is>
       </c>
       <c r="ACF1" s="1" t="inlineStr">
         <is>
-          <t>instrument</t>
+          <t>correlated</t>
         </is>
       </c>
       <c r="ACG1" s="1" t="inlineStr">
         <is>
-          <t>focused</t>
+          <t>environments</t>
         </is>
       </c>
       <c r="ACH1" s="1" t="inlineStr">
         <is>
-          <t>gate</t>
+          <t>connection</t>
         </is>
       </c>
       <c r="ACI1" s="1" t="inlineStr">
         <is>
-          <t>gathered</t>
+          <t>frustration</t>
         </is>
       </c>
       <c r="ACJ1" s="1" t="inlineStr">
         <is>
-          <t>initial</t>
+          <t>auditory</t>
         </is>
       </c>
       <c r="ACK1" s="1" t="inlineStr">
         <is>
-          <t>instruction</t>
+          <t>adiministered</t>
         </is>
       </c>
       <c r="ACL1" s="1" t="inlineStr">
         <is>
-          <t>interested</t>
+          <t>number</t>
         </is>
       </c>
       <c r="ACM1" s="1" t="inlineStr">
         <is>
-          <t>interpersonal</t>
+          <t>underachievement</t>
         </is>
       </c>
       <c r="ACN1" s="1" t="inlineStr">
         <is>
-          <t>intrapersonal</t>
+          <t>reasons</t>
         </is>
       </c>
       <c r="ACO1" s="1" t="inlineStr">
         <is>
-          <t>first-phase</t>
+          <t>tactile</t>
         </is>
       </c>
       <c r="ACP1" s="1" t="inlineStr">
         <is>
+          <t>identify</t>
+        </is>
+      </c>
+      <c r="ACQ1" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="ACR1" s="1" t="inlineStr">
+        <is>
+          <t>showed</t>
+        </is>
+      </c>
+      <c r="ACS1" s="1" t="inlineStr">
+        <is>
+          <t>nonpersonal</t>
+        </is>
+      </c>
+      <c r="ACT1" s="1" t="inlineStr">
+        <is>
+          <t>inconsistent</t>
+        </is>
+      </c>
+      <c r="ACU1" s="1" t="inlineStr">
+        <is>
+          <t>material</t>
+        </is>
+      </c>
+      <c r="ACV1" s="1" t="inlineStr">
+        <is>
+          <t>essays</t>
+        </is>
+      </c>
+      <c r="ACW1" s="1" t="inlineStr">
+        <is>
+          <t>brief</t>
+        </is>
+      </c>
+      <c r="ACX1" s="1" t="inlineStr">
+        <is>
+          <t>homework</t>
+        </is>
+      </c>
+      <c r="ACY1" s="1" t="inlineStr">
+        <is>
+          <t>given</t>
+        </is>
+      </c>
+      <c r="ACZ1" s="1" t="inlineStr">
+        <is>
+          <t>frequent</t>
+        </is>
+      </c>
+      <c r="ADA1" s="1" t="inlineStr">
+        <is>
+          <t>frame</t>
+        </is>
+      </c>
+      <c r="ADB1" s="1" t="inlineStr">
+        <is>
+          <t>second-order</t>
+        </is>
+      </c>
+      <c r="ADC1" s="1" t="inlineStr">
+        <is>
+          <t>expressed</t>
+        </is>
+      </c>
+      <c r="ADD1" s="1" t="inlineStr">
+        <is>
+          <t>structural</t>
+        </is>
+      </c>
+      <c r="ADE1" s="1" t="inlineStr">
+        <is>
+          <t>additionally</t>
+        </is>
+      </c>
+      <c r="ADF1" s="1" t="inlineStr">
+        <is>
+          <t>enrichment</t>
+        </is>
+      </c>
+      <c r="ADG1" s="1" t="inlineStr">
+        <is>
+          <t>course</t>
+        </is>
+      </c>
+      <c r="ADH1" s="1" t="inlineStr">
+        <is>
+          <t>discussion</t>
+        </is>
+      </c>
+      <c r="ADI1" s="1" t="inlineStr">
+        <is>
+          <t>differentiate</t>
+        </is>
+      </c>
+      <c r="ADJ1" s="1" t="inlineStr">
+        <is>
+          <t>depth</t>
+        </is>
+      </c>
+      <c r="ADK1" s="1" t="inlineStr">
+        <is>
+          <t>demonstrations</t>
+        </is>
+      </c>
+      <c r="ADL1" s="1" t="inlineStr">
+        <is>
+          <t>largely</t>
+        </is>
+      </c>
+      <c r="ADM1" s="1" t="inlineStr">
+        <is>
+          <t>breadth</t>
+        </is>
+      </c>
+      <c r="ADN1" s="1" t="inlineStr">
+        <is>
+          <t>beyond</t>
+        </is>
+      </c>
+      <c r="ADO1" s="1" t="inlineStr">
+        <is>
+          <t>assignments</t>
+        </is>
+      </c>
+      <c r="ADP1" s="1" t="inlineStr">
+        <is>
+          <t>advanced-level</t>
+        </is>
+      </c>
+      <c r="ADQ1" s="1" t="inlineStr">
+        <is>
+          <t>courses</t>
+        </is>
+      </c>
+      <c r="ADR1" s="1" t="inlineStr">
+        <is>
+          <t>kinesthetic</t>
+        </is>
+      </c>
+      <c r="ADS1" s="1" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="ADT1" s="1" t="inlineStr">
+        <is>
+          <t>lighting</t>
+        </is>
+      </c>
+      <c r="ADU1" s="1" t="inlineStr">
+        <is>
+          <t>lectures</t>
+        </is>
+      </c>
+      <c r="ADV1" s="1" t="inlineStr">
+        <is>
+          <t>modalities</t>
+        </is>
+      </c>
+      <c r="ADW1" s="1" t="inlineStr">
+        <is>
+          <t>perceive</t>
+        </is>
+      </c>
+      <c r="ADX1" s="1" t="inlineStr">
+        <is>
+          <t>individualize</t>
+        </is>
+      </c>
+      <c r="ADY1" s="1" t="inlineStr">
+        <is>
+          <t>independence</t>
+        </is>
+      </c>
+      <c r="ADZ1" s="1" t="inlineStr">
+        <is>
+          <t>tested</t>
+        </is>
+      </c>
+      <c r="AEA1" s="1" t="inlineStr">
+        <is>
+          <t>perception</t>
+        </is>
+      </c>
+      <c r="AEB1" s="1" t="inlineStr">
+        <is>
+          <t>subsequent</t>
+        </is>
+      </c>
+      <c r="AEC1" s="1" t="inlineStr">
+        <is>
+          <t>in-class</t>
+        </is>
+      </c>
+      <c r="AED1" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AEE1" s="1" t="inlineStr">
+        <is>
+          <t>3-week</t>
+        </is>
+      </c>
+      <c r="AEF1" s="1" t="inlineStr">
+        <is>
+          <t>separately</t>
+        </is>
+      </c>
+      <c r="AEG1" s="1" t="inlineStr">
+        <is>
+          <t>taught</t>
+        </is>
+      </c>
+      <c r="AEH1" s="1" t="inlineStr">
+        <is>
+          <t>regularly</t>
+        </is>
+      </c>
+      <c r="AEI1" s="1" t="inlineStr">
+        <is>
+          <t>evaluate</t>
+        </is>
+      </c>
+      <c r="AEJ1" s="1" t="inlineStr">
+        <is>
+          <t>timed</t>
+        </is>
+      </c>
+      <c r="AEK1" s="1" t="inlineStr">
+        <is>
+          <t>varied</t>
+        </is>
+      </c>
+      <c r="AEL1" s="1" t="inlineStr">
+        <is>
+          <t>weeks</t>
+        </is>
+      </c>
+      <c r="AEM1" s="1" t="inlineStr">
+        <is>
+          <t>writing</t>
+        </is>
+      </c>
+      <c r="AEN1" s="1" t="inlineStr">
+        <is>
+          <t>yet</t>
+        </is>
+      </c>
+      <c r="AEO1" s="1" t="inlineStr">
+        <is>
+          <t>hypothesizing</t>
+        </is>
+      </c>
+      <c r="AEP1" s="1" t="inlineStr">
+        <is>
+          <t>hong</t>
+        </is>
+      </c>
+      <c r="AEQ1" s="1" t="inlineStr">
+        <is>
+          <t>equivalence</t>
+        </is>
+      </c>
+      <c r="AER1" s="1" t="inlineStr">
+        <is>
+          <t>textbook</t>
+        </is>
+      </c>
+      <c r="AES1" s="1" t="inlineStr">
+        <is>
           <t>degrees</t>
         </is>
       </c>
-      <c r="ACQ1" s="1" t="inlineStr">
+      <c r="AET1" s="1" t="inlineStr">
+        <is>
+          <t>assessed</t>
+        </is>
+      </c>
+      <c r="AEU1" s="1" t="inlineStr">
         <is>
           <t>applied</t>
         </is>
       </c>
-      <c r="ACR1" s="1" t="inlineStr">
-        <is>
-          <t>inconsistent</t>
-        </is>
-      </c>
-      <c r="ACS1" s="1" t="inlineStr">
-        <is>
-          <t>assessed</t>
-        </is>
-      </c>
-      <c r="ACT1" s="1" t="inlineStr">
+      <c r="AEV1" s="1" t="inlineStr">
         <is>
           <t>analyses</t>
         </is>
       </c>
-      <c r="ACU1" s="1" t="inlineStr">
-        <is>
-          <t>equivalence</t>
-        </is>
-      </c>
-      <c r="ACV1" s="1" t="inlineStr">
-        <is>
-          <t>hypothesizing</t>
-        </is>
-      </c>
-      <c r="ACW1" s="1" t="inlineStr">
-        <is>
-          <t>evaluate</t>
-        </is>
-      </c>
-      <c r="ACX1" s="1" t="inlineStr">
-        <is>
-          <t>hong</t>
-        </is>
-      </c>
-      <c r="ACY1" s="1" t="inlineStr">
+      <c r="AEW1" s="1" t="inlineStr">
+        <is>
+          <t>adequately</t>
+        </is>
+      </c>
+      <c r="AEX1" s="1" t="inlineStr">
         <is>
           <t>1.464</t>
         </is>
       </c>
-      <c r="ACZ1" s="1" t="inlineStr">
-        <is>
-          <t>kinesthetic</t>
-        </is>
-      </c>
-      <c r="ADA1" s="1" t="inlineStr">
+      <c r="AEY1" s="1" t="inlineStr">
+        <is>
+          <t>decades</t>
+        </is>
+      </c>
+      <c r="AEZ1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="AFA1" s="1" t="inlineStr">
+        <is>
+          <t>correlations</t>
+        </is>
+      </c>
+      <c r="AFB1" s="1" t="inlineStr">
+        <is>
+          <t>sessions</t>
+        </is>
+      </c>
+      <c r="AFC1" s="1" t="inlineStr">
+        <is>
+          <t>supplemental</t>
+        </is>
+      </c>
+      <c r="AFD1" s="1" t="inlineStr">
+        <is>
+          <t>selections</t>
+        </is>
+      </c>
+      <c r="AFE1" s="1" t="inlineStr">
+        <is>
+          <t>secondary-level</t>
+        </is>
+      </c>
+      <c r="AFF1" s="1" t="inlineStr">
+        <is>
+          <t>shorter</t>
+        </is>
+      </c>
+      <c r="AFG1" s="1" t="inlineStr">
+        <is>
+          <t>repetition</t>
+        </is>
+      </c>
+      <c r="AFH1" s="1" t="inlineStr">
+        <is>
+          <t>summer</t>
+        </is>
+      </c>
+      <c r="AFI1" s="1" t="inlineStr">
         <is>
           <t>kong</t>
         </is>
       </c>
-      <c r="ADB1" s="1" t="inlineStr">
-        <is>
-          <t>largely</t>
-        </is>
-      </c>
-      <c r="ADC1" s="1" t="inlineStr">
-        <is>
-          <t>might</t>
-        </is>
-      </c>
-      <c r="ADD1" s="1" t="inlineStr">
-        <is>
-          <t>multigroup</t>
-        </is>
-      </c>
-      <c r="ADE1" s="1" t="inlineStr">
-        <is>
-          <t>adequately</t>
-        </is>
-      </c>
-      <c r="ADF1" s="1" t="inlineStr">
-        <is>
-          <t>frustration</t>
-        </is>
-      </c>
-      <c r="ADG1" s="1" t="inlineStr">
-        <is>
-          <t>varied</t>
-        </is>
-      </c>
-      <c r="ADH1" s="1" t="inlineStr">
-        <is>
-          <t>correlated</t>
-        </is>
-      </c>
-      <c r="ADI1" s="1" t="inlineStr">
-        <is>
-          <t>additionally</t>
-        </is>
-      </c>
-      <c r="ADJ1" s="1" t="inlineStr">
-        <is>
-          <t>adiministered</t>
-        </is>
-      </c>
-      <c r="ADK1" s="1" t="inlineStr">
-        <is>
-          <t>administered</t>
-        </is>
-      </c>
-      <c r="ADL1" s="1" t="inlineStr">
-        <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="ADM1" s="1" t="inlineStr">
-        <is>
-          <t>auditory</t>
-        </is>
-      </c>
-      <c r="ADN1" s="1" t="inlineStr">
-        <is>
-          <t>connection</t>
-        </is>
-      </c>
-      <c r="ADO1" s="1" t="inlineStr">
-        <is>
-          <t>correlations</t>
-        </is>
-      </c>
-      <c r="ADP1" s="1" t="inlineStr">
-        <is>
-          <t>identify</t>
-        </is>
-      </c>
-      <c r="ADQ1" s="1" t="inlineStr">
-        <is>
-          <t>eighty</t>
-        </is>
-      </c>
-      <c r="ADR1" s="1" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="ADS1" s="1" t="inlineStr">
-        <is>
-          <t>environments</t>
-        </is>
-      </c>
-      <c r="ADT1" s="1" t="inlineStr">
-        <is>
-          <t>yet</t>
-        </is>
-      </c>
-      <c r="ADU1" s="1" t="inlineStr">
-        <is>
-          <t>writing</t>
-        </is>
-      </c>
-      <c r="ADV1" s="1" t="inlineStr">
-        <is>
-          <t>weeks</t>
-        </is>
-      </c>
-      <c r="ADW1" s="1" t="inlineStr">
-        <is>
-          <t>nonpersonal</t>
-        </is>
-      </c>
-      <c r="ADX1" s="1" t="inlineStr">
-        <is>
-          <t>given</t>
-        </is>
-      </c>
-      <c r="ADY1" s="1" t="inlineStr">
-        <is>
-          <t>perceive</t>
-        </is>
-      </c>
-      <c r="ADZ1" s="1" t="inlineStr">
-        <is>
-          <t>demonstrations</t>
-        </is>
-      </c>
-      <c r="AEA1" s="1" t="inlineStr">
-        <is>
-          <t>move</t>
-        </is>
-      </c>
-      <c r="AEB1" s="1" t="inlineStr">
-        <is>
-          <t>paced</t>
-        </is>
-      </c>
-      <c r="AEC1" s="1" t="inlineStr">
-        <is>
-          <t>presentations</t>
-        </is>
-      </c>
-      <c r="AED1" s="1" t="inlineStr">
-        <is>
-          <t>quizzes</t>
-        </is>
-      </c>
-      <c r="AEE1" s="1" t="inlineStr">
-        <is>
-          <t>readings</t>
-        </is>
-      </c>
-      <c r="AEF1" s="1" t="inlineStr">
-        <is>
-          <t>reasons</t>
-        </is>
-      </c>
-      <c r="AEG1" s="1" t="inlineStr">
-        <is>
-          <t>regularly</t>
-        </is>
-      </c>
-      <c r="AEH1" s="1" t="inlineStr">
-        <is>
-          <t>assignments</t>
-        </is>
-      </c>
-      <c r="AEI1" s="1" t="inlineStr">
-        <is>
-          <t>covered</t>
-        </is>
-      </c>
-      <c r="AEJ1" s="1" t="inlineStr">
-        <is>
-          <t>courses</t>
-        </is>
-      </c>
-      <c r="AEK1" s="1" t="inlineStr">
-        <is>
-          <t>course</t>
-        </is>
-      </c>
-      <c r="AEL1" s="1" t="inlineStr">
-        <is>
-          <t>brief</t>
-        </is>
-      </c>
-      <c r="AEM1" s="1" t="inlineStr">
-        <is>
-          <t>repetition</t>
-        </is>
-      </c>
-      <c r="AEN1" s="1" t="inlineStr">
-        <is>
-          <t>breadth</t>
-        </is>
-      </c>
-      <c r="AEO1" s="1" t="inlineStr">
-        <is>
-          <t>depth</t>
-        </is>
-      </c>
-      <c r="AEP1" s="1" t="inlineStr">
-        <is>
-          <t>differentiate</t>
-        </is>
-      </c>
-      <c r="AEQ1" s="1" t="inlineStr">
-        <is>
-          <t>discussion</t>
-        </is>
-      </c>
-      <c r="AER1" s="1" t="inlineStr">
-        <is>
-          <t>second-order</t>
-        </is>
-      </c>
-      <c r="AES1" s="1" t="inlineStr">
-        <is>
-          <t>enrichment</t>
-        </is>
-      </c>
-      <c r="AET1" s="1" t="inlineStr">
-        <is>
-          <t>months</t>
-        </is>
-      </c>
-      <c r="AEU1" s="1" t="inlineStr">
-        <is>
-          <t>modify</t>
-        </is>
-      </c>
-      <c r="AEV1" s="1" t="inlineStr">
-        <is>
-          <t>material</t>
-        </is>
-      </c>
-      <c r="AEW1" s="1" t="inlineStr">
-        <is>
-          <t>essays</t>
-        </is>
-      </c>
-      <c r="AEX1" s="1" t="inlineStr">
-        <is>
-          <t>lectures</t>
-        </is>
-      </c>
-      <c r="AEY1" s="1" t="inlineStr">
-        <is>
-          <t>expressed</t>
-        </is>
-      </c>
-      <c r="AEZ1" s="1" t="inlineStr">
-        <is>
-          <t>individualize</t>
-        </is>
-      </c>
-      <c r="AFA1" s="1" t="inlineStr">
-        <is>
-          <t>frame</t>
-        </is>
-      </c>
-      <c r="AFB1" s="1" t="inlineStr">
-        <is>
-          <t>independence</t>
-        </is>
-      </c>
-      <c r="AFC1" s="1" t="inlineStr">
-        <is>
-          <t>in-class</t>
-        </is>
-      </c>
-      <c r="AFD1" s="1" t="inlineStr">
-        <is>
-          <t>frequent</t>
-        </is>
-      </c>
-      <c r="AFE1" s="1" t="inlineStr">
-        <is>
-          <t>homework</t>
-        </is>
-      </c>
-      <c r="AFF1" s="1" t="inlineStr">
-        <is>
-          <t>beyond</t>
-        </is>
-      </c>
-      <c r="AFG1" s="1" t="inlineStr">
-        <is>
-          <t>decades</t>
-        </is>
-      </c>
-      <c r="AFH1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="AFI1" s="1" t="inlineStr">
-        <is>
-          <t>relationship</t>
-        </is>
-      </c>
       <c r="AFJ1" s="1" t="inlineStr">
         <is>
-          <t>separately</t>
+          <t>tests</t>
         </is>
       </c>
       <c r="AFK1" s="1" t="inlineStr">
         <is>
-          <t>possible</t>
+          <t>myers-type</t>
         </is>
       </c>
       <c r="AFL1" s="1" t="inlineStr">
         <is>
-          <t>selections</t>
+          <t>korean</t>
         </is>
       </c>
       <c r="AFM1" s="1" t="inlineStr">
         <is>
-          <t>modalities</t>
+          <t>responded</t>
         </is>
       </c>
       <c r="AFN1" s="1" t="inlineStr">
         <is>
-          <t>underachievement</t>
+          <t>myers</t>
         </is>
       </c>
       <c r="AFO1" s="1" t="inlineStr">
         <is>
-          <t>perception</t>
+          <t>favoring</t>
         </is>
       </c>
       <c r="AFP1" s="1" t="inlineStr">
         <is>
-          <t>sessions</t>
+          <t>/introversion</t>
         </is>
       </c>
       <c r="AFQ1" s="1" t="inlineStr">
         <is>
-          <t>subsequent</t>
+          <t>primary</t>
         </is>
       </c>
       <c r="AFR1" s="1" t="inlineStr">
         <is>
-          <t>tactile</t>
+          <t>province</t>
         </is>
       </c>
       <c r="AFS1" s="1" t="inlineStr">
         <is>
-          <t>shorter</t>
+          <t>researcher-constructed</t>
         </is>
       </c>
       <c r="AFT1" s="1" t="inlineStr">
         <is>
-          <t>summer</t>
+          <t>between-groups</t>
         </is>
       </c>
       <c r="AFU1" s="1" t="inlineStr">
         <is>
-          <t>source</t>
+          <t>/intuition</t>
         </is>
       </c>
       <c r="AFV1" s="1" t="inlineStr">
         <is>
-          <t>showed</t>
+          <t>/feeling</t>
         </is>
       </c>
       <c r="AFW1" s="1" t="inlineStr">
         <is>
-          <t>supplemental</t>
+          <t>/perceiving</t>
         </is>
       </c>
       <c r="AFX1" s="1" t="inlineStr">
         <is>
-          <t>structural</t>
+          <t>responses</t>
         </is>
       </c>
       <c r="AFY1" s="1" t="inlineStr">
         <is>
-          <t>tests</t>
+          <t>ryff</t>
         </is>
       </c>
       <c r="AFZ1" s="1" t="inlineStr">
         <is>
-          <t>secondary-level</t>
+          <t>satisfactory</t>
         </is>
       </c>
       <c r="AGA1" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>mbti</t>
         </is>
       </c>
       <c r="AGB1" s="1" t="inlineStr">
         <is>
-          <t>advanced-level</t>
+          <t>scales</t>
         </is>
       </c>
       <c r="AGC1" s="1" t="inlineStr">
         <is>
-          <t>timed</t>
+          <t>152</t>
         </is>
       </c>
       <c r="AGD1" s="1" t="inlineStr">
         <is>
-          <t>lighting</t>
+          <t>schooling</t>
         </is>
       </c>
       <c r="AGE1" s="1" t="inlineStr">
         <is>
-          <t>textbook</t>
+          <t>expertise</t>
         </is>
       </c>
       <c r="AGF1" s="1" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>confirm</t>
         </is>
       </c>
       <c r="AGG1" s="1" t="inlineStr">
         <is>
-          <t>taught</t>
+          <t>experiences</t>
         </is>
       </c>
       <c r="AGH1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>expectation</t>
         </is>
       </c>
       <c r="AGI1" s="1" t="inlineStr">
         <is>
-          <t>3-week</t>
+          <t>sensing</t>
         </is>
       </c>
       <c r="AGJ1" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>self-report</t>
         </is>
       </c>
       <c r="AGK1" s="1" t="inlineStr">
         <is>
-          <t>tested</t>
+          <t>reliably</t>
         </is>
       </c>
       <c r="AGL1" s="1" t="inlineStr">
         <is>
+          <t>variance</t>
+        </is>
+      </c>
+      <c r="AGM1" s="1" t="inlineStr">
+        <is>
+          <t>widely</t>
+        </is>
+      </c>
+      <c r="AGN1" s="1" t="inlineStr">
+        <is>
+          <t>rates</t>
+        </is>
+      </c>
+      <c r="AGO1" s="1" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="AGP1" s="1" t="inlineStr">
+        <is>
+          <t>predict</t>
+        </is>
+      </c>
+      <c r="AGQ1" s="1" t="inlineStr">
+        <is>
+          <t>perceiving</t>
+        </is>
+      </c>
+      <c r="AGR1" s="1" t="inlineStr">
+        <is>
+          <t>participation</t>
+        </is>
+      </c>
+      <c r="AGS1" s="1" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="AGT1" s="1" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="AGU1" s="1" t="inlineStr">
+        <is>
+          <t>1989a</t>
+        </is>
+      </c>
+      <c r="AGV1" s="1" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="AGW1" s="1" t="inlineStr">
+        <is>
+          <t>advanced</t>
+        </is>
+      </c>
+      <c r="AGX1" s="1" t="inlineStr">
+        <is>
+          <t>appreciated</t>
+        </is>
+      </c>
+      <c r="AGY1" s="1" t="inlineStr">
+        <is>
+          <t>nongifted</t>
+        </is>
+      </c>
+      <c r="AGZ1" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AHA1" s="1" t="inlineStr">
+        <is>
+          <t>enhance</t>
+        </is>
+      </c>
+      <c r="AHB1" s="1" t="inlineStr">
+        <is>
+          <t>specialized</t>
+        </is>
+      </c>
+      <c r="AHC1" s="1" t="inlineStr">
+        <is>
+          <t>traditional</t>
+        </is>
+      </c>
+      <c r="AHD1" s="1" t="inlineStr">
+        <is>
+          <t>30-item</t>
+        </is>
+      </c>
+      <c r="AHE1" s="1" t="inlineStr">
+        <is>
+          <t>contrasts</t>
+        </is>
+      </c>
+      <c r="AHF1" s="1" t="inlineStr">
+        <is>
+          <t>extraversion</t>
+        </is>
+      </c>
+      <c r="AHG1" s="1" t="inlineStr">
+        <is>
+          <t>assess</t>
+        </is>
+      </c>
+      <c r="AHH1" s="1" t="inlineStr">
+        <is>
+          <t>suicides</t>
+        </is>
+      </c>
+      <c r="AHI1" s="1" t="inlineStr">
+        <is>
+          <t>exhibiting</t>
+        </is>
+      </c>
+      <c r="AHJ1" s="1" t="inlineStr">
+        <is>
+          <t>exhibit</t>
+        </is>
+      </c>
+      <c r="AHK1" s="1" t="inlineStr">
+        <is>
+          <t>four</t>
+        </is>
+      </c>
+      <c r="AHL1" s="1" t="inlineStr">
+        <is>
+          <t>enrolled</t>
+        </is>
+      </c>
+      <c r="AHM1" s="1" t="inlineStr">
+        <is>
+          <t>heightened</t>
+        </is>
+      </c>
+      <c r="AHN1" s="1" t="inlineStr">
+        <is>
+          <t>combined</t>
+        </is>
+      </c>
+      <c r="AHO1" s="1" t="inlineStr">
+        <is>
+          <t>identifies</t>
+        </is>
+      </c>
+      <c r="AHP1" s="1" t="inlineStr">
+        <is>
+          <t>compared</t>
+        </is>
+      </c>
+      <c r="AHQ1" s="1" t="inlineStr">
+        <is>
+          <t>indicator</t>
+        </is>
+      </c>
+      <c r="AHR1" s="1" t="inlineStr">
+        <is>
           <t>1962</t>
         </is>
       </c>
-      <c r="AGM1" s="1" t="inlineStr">
-        <is>
-          <t>participation</t>
-        </is>
-      </c>
-      <c r="AGN1" s="1" t="inlineStr">
-        <is>
-          <t>30-item</t>
-        </is>
-      </c>
-      <c r="AGO1" s="1" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
-      </c>
-      <c r="AGP1" s="1" t="inlineStr">
-        <is>
-          <t>between-groups</t>
-        </is>
-      </c>
-      <c r="AGQ1" s="1" t="inlineStr">
-        <is>
-          <t>perceiving</t>
-        </is>
-      </c>
-      <c r="AGR1" s="1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="AGS1" s="1" t="inlineStr">
-        <is>
-          <t>combined</t>
-        </is>
-      </c>
-      <c r="AGT1" s="1" t="inlineStr">
-        <is>
-          <t>scales</t>
-        </is>
-      </c>
-      <c r="AGU1" s="1" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="AGV1" s="1" t="inlineStr">
-        <is>
-          <t>assess</t>
-        </is>
-      </c>
-      <c r="AGW1" s="1" t="inlineStr">
-        <is>
-          <t>nongifted</t>
-        </is>
-      </c>
-      <c r="AGX1" s="1" t="inlineStr">
-        <is>
-          <t>compared</t>
-        </is>
-      </c>
-      <c r="AGY1" s="1" t="inlineStr">
-        <is>
-          <t>exhibiting</t>
-        </is>
-      </c>
-      <c r="AGZ1" s="1" t="inlineStr">
-        <is>
-          <t>heightened</t>
-        </is>
-      </c>
-      <c r="AHA1" s="1" t="inlineStr">
-        <is>
-          <t>identifies</t>
-        </is>
-      </c>
-      <c r="AHB1" s="1" t="inlineStr">
-        <is>
-          <t>indicator</t>
-        </is>
-      </c>
-      <c r="AHC1" s="1" t="inlineStr">
+      <c r="AHS1" s="1" t="inlineStr">
         <is>
           <t>introversion-perceiving</t>
         </is>
       </c>
-      <c r="AHD1" s="1" t="inlineStr">
+      <c r="AHT1" s="1" t="inlineStr">
         <is>
           <t>ip</t>
         </is>
       </c>
-      <c r="AHE1" s="1" t="inlineStr">
-        <is>
-          <t>j</t>
-        </is>
-      </c>
-      <c r="AHF1" s="1" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="AHG1" s="1" t="inlineStr">
+      <c r="AHU1" s="1" t="inlineStr">
         <is>
           <t>extraversion/introversion</t>
         </is>
       </c>
-      <c r="AHH1" s="1" t="inlineStr">
-        <is>
-          <t>extraversion</t>
-        </is>
-      </c>
-      <c r="AHI1" s="1" t="inlineStr">
-        <is>
-          <t>exhibit</t>
-        </is>
-      </c>
-      <c r="AHJ1" s="1" t="inlineStr">
-        <is>
-          <t>/perceiving</t>
-        </is>
-      </c>
-      <c r="AHK1" s="1" t="inlineStr">
+      <c r="AHV1" s="1" t="inlineStr">
+        <is>
+          <t>juniors</t>
+        </is>
+      </c>
+      <c r="AHW1" s="1" t="inlineStr">
+        <is>
+          <t>judging/perceiving</t>
+        </is>
+      </c>
+      <c r="AHX1" s="1" t="inlineStr">
         <is>
           <t>judging-perceiving</t>
         </is>
       </c>
-      <c r="AHL1" s="1" t="inlineStr">
-        <is>
-          <t>judging/perceiving</t>
-        </is>
-      </c>
-      <c r="AHM1" s="1" t="inlineStr">
-        <is>
-          <t>juniors</t>
-        </is>
-      </c>
-      <c r="AHN1" s="1" t="inlineStr">
-        <is>
-          <t>enrolled</t>
-        </is>
-      </c>
-      <c r="AHO1" s="1" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="AHP1" s="1" t="inlineStr">
-        <is>
-          <t>mbti</t>
-        </is>
-      </c>
-      <c r="AHQ1" s="1" t="inlineStr">
-        <is>
-          <t>myers</t>
-        </is>
-      </c>
-      <c r="AHR1" s="1" t="inlineStr">
-        <is>
-          <t>myers-type</t>
-        </is>
-      </c>
-      <c r="AHS1" s="1" t="inlineStr">
-        <is>
-          <t>contrasts</t>
-        </is>
-      </c>
-      <c r="AHT1" s="1" t="inlineStr">
-        <is>
-          <t>predict</t>
-        </is>
-      </c>
-      <c r="AHU1" s="1" t="inlineStr">
-        <is>
-          <t>schooling</t>
-        </is>
-      </c>
-      <c r="AHV1" s="1" t="inlineStr">
-        <is>
-          <t>public</t>
-        </is>
-      </c>
-      <c r="AHW1" s="1" t="inlineStr">
-        <is>
-          <t>primary</t>
-        </is>
-      </c>
-      <c r="AHX1" s="1" t="inlineStr">
-        <is>
-          <t>enhance</t>
-        </is>
-      </c>
       <c r="AHY1" s="1" t="inlineStr">
         <is>
-          <t>expectation</t>
+          <t>inventories</t>
         </is>
       </c>
       <c r="AHZ1" s="1" t="inlineStr">
         <is>
-          <t>experiences</t>
+          <t>targeted</t>
         </is>
       </c>
       <c r="AIA1" s="1" t="inlineStr">
         <is>
-          <t>expertise</t>
+          <t>47-item</t>
         </is>
       </c>
       <c r="AIB1" s="1" t="inlineStr">
         <is>
-          <t>favoring</t>
+          <t>4-18</t>
         </is>
       </c>
       <c r="AIC1" s="1" t="inlineStr">
         <is>
-          <t>korean</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AID1" s="1" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>twenty</t>
         </is>
       </c>
       <c r="AIE1" s="1" t="inlineStr">
         <is>
-          <t>province</t>
+          <t>sought</t>
         </is>
       </c>
       <c r="AIF1" s="1" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>specific</t>
         </is>
       </c>
       <c r="AIG1" s="1" t="inlineStr">
         <is>
-          <t>traditional</t>
+          <t>analyzed</t>
         </is>
       </c>
       <c r="AIH1" s="1" t="inlineStr">
         <is>
-          <t>researcher-constructed</t>
+          <t>social/emotional</t>
         </is>
       </c>
       <c r="AII1" s="1" t="inlineStr">
         <is>
-          <t>responded</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="AIJ1" s="1" t="inlineStr">
         <is>
-          <t>responses</t>
+          <t>process</t>
         </is>
       </c>
       <c r="AIK1" s="1" t="inlineStr">
         <is>
-          <t>ryff</t>
+          <t>ages</t>
         </is>
       </c>
       <c r="AIL1" s="1" t="inlineStr">
         <is>
-          <t>satisfactory</t>
+          <t>assist</t>
         </is>
       </c>
       <c r="AIM1" s="1" t="inlineStr">
         <is>
-          <t>specialized</t>
+          <t>hundred</t>
         </is>
       </c>
       <c r="AIN1" s="1" t="inlineStr">
         <is>
-          <t>confirm</t>
+          <t>emphasize</t>
         </is>
       </c>
       <c r="AIO1" s="1" t="inlineStr">
         <is>
-          <t>appreciated</t>
+          <t>help</t>
         </is>
       </c>
       <c r="AIP1" s="1" t="inlineStr">
         <is>
-          <t>/intuition</t>
+          <t>guidance</t>
         </is>
       </c>
       <c r="AIQ1" s="1" t="inlineStr">
         <is>
-          <t>suicides</t>
+          <t>led</t>
         </is>
       </c>
       <c r="AIR1" s="1" t="inlineStr">
         <is>
-          <t>rates</t>
+          <t>followed</t>
         </is>
       </c>
       <c r="AIS1" s="1" t="inlineStr">
         <is>
-          <t>/introversion</t>
+          <t>fee-based</t>
         </is>
       </c>
       <c r="AIT1" s="1" t="inlineStr">
         <is>
-          <t>/feeling</t>
+          <t>meet</t>
         </is>
       </c>
       <c r="AIU1" s="1" t="inlineStr">
         <is>
-          <t>reliably</t>
+          <t>preschool</t>
         </is>
       </c>
       <c r="AIV1" s="1" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>bring</t>
         </is>
       </c>
       <c r="AIW1" s="1" t="inlineStr">
         <is>
-          <t>self-report</t>
+          <t>designed</t>
         </is>
       </c>
       <c r="AIX1" s="1" t="inlineStr">
         <is>
-          <t>sensing</t>
+          <t>need</t>
         </is>
       </c>
       <c r="AIY1" s="1" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>concern</t>
         </is>
       </c>
       <c r="AIZ1" s="1" t="inlineStr">
         <is>
-          <t>advanced</t>
+          <t>closely</t>
         </is>
       </c>
       <c r="AJA1" s="1" t="inlineStr">
         <is>
-          <t>there</t>
+          <t>client</t>
         </is>
       </c>
       <c r="AJB1" s="1" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>categories</t>
         </is>
       </c>
       <c r="AJC1" s="1" t="inlineStr">
         <is>
-          <t>widely</t>
-        </is>
-      </c>
-      <c r="AJD1" s="1" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="AJE1" s="1" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
-      </c>
-      <c r="AJF1" s="1" t="inlineStr">
-        <is>
-          <t>1989a</t>
-        </is>
-      </c>
-      <c r="AJG1" s="1" t="inlineStr">
-        <is>
-          <t>299</t>
-        </is>
-      </c>
-      <c r="AJH1" s="1" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="AJI1" s="1" t="inlineStr">
-        <is>
-          <t>followed</t>
-        </is>
-      </c>
-      <c r="AJJ1" s="1" t="inlineStr">
-        <is>
-          <t>twenty</t>
-        </is>
-      </c>
-      <c r="AJK1" s="1" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
-      <c r="AJL1" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AJM1" s="1" t="inlineStr">
-        <is>
-          <t>4-18</t>
-        </is>
-      </c>
-      <c r="AJN1" s="1" t="inlineStr">
-        <is>
-          <t>ages</t>
-        </is>
-      </c>
-      <c r="AJO1" s="1" t="inlineStr">
-        <is>
-          <t>analyzed</t>
-        </is>
-      </c>
-      <c r="AJP1" s="1" t="inlineStr">
-        <is>
-          <t>assist</t>
-        </is>
-      </c>
-      <c r="AJQ1" s="1" t="inlineStr">
-        <is>
-          <t>bring</t>
-        </is>
-      </c>
-      <c r="AJR1" s="1" t="inlineStr">
-        <is>
-          <t>categories</t>
-        </is>
-      </c>
-      <c r="AJS1" s="1" t="inlineStr">
-        <is>
-          <t>client</t>
-        </is>
-      </c>
-      <c r="AJT1" s="1" t="inlineStr">
-        <is>
-          <t>closely</t>
-        </is>
-      </c>
-      <c r="AJU1" s="1" t="inlineStr">
-        <is>
-          <t>concern</t>
-        </is>
-      </c>
-      <c r="AJV1" s="1" t="inlineStr">
-        <is>
-          <t>designed</t>
-        </is>
-      </c>
-      <c r="AJW1" s="1" t="inlineStr">
-        <is>
-          <t>emphasize</t>
-        </is>
-      </c>
-      <c r="AJX1" s="1" t="inlineStr">
-        <is>
-          <t>fee-based</t>
-        </is>
-      </c>
-      <c r="AJY1" s="1" t="inlineStr">
-        <is>
-          <t>guidance</t>
-        </is>
-      </c>
-      <c r="AJZ1" s="1" t="inlineStr">
-        <is>
-          <t>targeted</t>
-        </is>
-      </c>
-      <c r="AKA1" s="1" t="inlineStr">
-        <is>
-          <t>help</t>
-        </is>
-      </c>
-      <c r="AKB1" s="1" t="inlineStr">
-        <is>
-          <t>hundred</t>
-        </is>
-      </c>
-      <c r="AKC1" s="1" t="inlineStr">
-        <is>
-          <t>inventories</t>
-        </is>
-      </c>
-      <c r="AKD1" s="1" t="inlineStr">
-        <is>
-          <t>led</t>
-        </is>
-      </c>
-      <c r="AKE1" s="1" t="inlineStr">
-        <is>
-          <t>meet</t>
-        </is>
-      </c>
-      <c r="AKF1" s="1" t="inlineStr">
-        <is>
-          <t>need</t>
-        </is>
-      </c>
-      <c r="AKG1" s="1" t="inlineStr">
-        <is>
-          <t>parent</t>
-        </is>
-      </c>
-      <c r="AKH1" s="1" t="inlineStr">
-        <is>
           <t>preadolescent</t>
-        </is>
-      </c>
-      <c r="AKI1" s="1" t="inlineStr">
-        <is>
-          <t>preschool</t>
-        </is>
-      </c>
-      <c r="AKJ1" s="1" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="AKK1" s="1" t="inlineStr">
-        <is>
-          <t>social/emotional</t>
-        </is>
-      </c>
-      <c r="AKL1" s="1" t="inlineStr">
-        <is>
-          <t>sought</t>
-        </is>
-      </c>
-      <c r="AKM1" s="1" t="inlineStr">
-        <is>
-          <t>specific</t>
-        </is>
-      </c>
-      <c r="AKN1" s="1" t="inlineStr">
-        <is>
-          <t>47-item</t>
         </is>
       </c>
     </row>
@@ -5322,82 +5137,82 @@
         <v>2006</v>
       </c>
       <c r="D2" t="n">
-        <v>2.13</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>2.13</v>
+        <v>1.9</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="I2" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="J2" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="K2" t="n">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8300000000000001</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="R2" t="n">
         <v>0.8200000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.6900000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="U2" t="n">
-        <v>0.6900000000000001</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="V2" t="n">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="W2" t="n">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="X2" t="n">
-        <v>0.64</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.62</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.59</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5800000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AD2" t="n">
         <v>0.58</v>
@@ -5406,64 +5221,64 @@
         <v>0.58</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="AR2" t="n">
         <v>0.47</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.46</v>
+        <v>0.4400000000000001</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.4400000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="AZ2" t="n">
         <v>0.44</v>
@@ -5478,10 +5293,10 @@
         <v>0.44</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="BF2" t="n">
         <v>0.43</v>
@@ -5493,55 +5308,55 @@
         <v>0.43</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="BM2" t="n">
         <v>0.42</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="BO2" t="n">
         <v>0.41</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="BW2" t="n">
         <v>0.39</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="BZ2" t="n">
         <v>0.38</v>
@@ -5550,7 +5365,7 @@
         <v>0.38</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="CC2" t="n">
         <v>0.37</v>
@@ -5559,28 +5374,28 @@
         <v>0.37</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="CM2" t="n">
         <v>0.35</v>
@@ -5592,88 +5407,88 @@
         <v>0.35</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="CT2" t="n">
         <v>0.34</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.33</v>
+        <v>0.3200000000000001</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="DM2" t="n">
         <v>0.29</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="DR2" t="n">
         <v>0.28</v>
@@ -5682,94 +5497,94 @@
         <v>0.28</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="EX2" t="n">
         <v>0.23</v>
@@ -5784,31 +5599,31 @@
         <v>0.23</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="FK2" t="n">
         <v>0.22</v>
@@ -5817,28 +5632,28 @@
         <v>0.22</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="FU2" t="n">
         <v>0.21</v>
@@ -5859,22 +5674,22 @@
         <v>0.21</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="GG2" t="n">
         <v>0.2</v>
@@ -5892,28 +5707,28 @@
         <v>0.2</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="GS2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="GT2" t="n">
         <v>0.19</v>
@@ -5958,49 +5773,49 @@
         <v>0.19</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="HN2" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="HO2" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="HP2" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="HW2" t="n">
         <v>0.18</v>
@@ -6024,37 +5839,37 @@
         <v>0.18</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="II2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="IJ2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="IO2" t="n">
         <v>0.17</v>
@@ -6099,16 +5914,16 @@
         <v>0.17</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JD2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JF2" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="JG2" t="n">
         <v>0.16</v>
@@ -6177,37 +5992,37 @@
         <v>0.16</v>
       </c>
       <c r="KC2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KD2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KE2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KF2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KG2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KH2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KI2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KK2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KL2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KM2" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="KN2" t="n">
         <v>0.15</v>
@@ -6252,46 +6067,46 @@
         <v>0.15</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LE2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LG2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LH2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LI2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LJ2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LL2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="LP2" t="n">
         <v>0.14</v>
@@ -6318,49 +6133,49 @@
         <v>0.14</v>
       </c>
       <c r="LX2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="LZ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MA2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MB2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MC2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MD2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="ME2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MF2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MG2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MH2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MJ2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="MM2" t="n">
         <v>0.13</v>
@@ -6396,40 +6211,40 @@
         <v>0.13</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="MY2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="MZ2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NA2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NB2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NC2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NE2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NG2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NH2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NI2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="NJ2" t="n">
         <v>0.12</v>
@@ -6501,19 +6316,19 @@
         <v>0.12</v>
       </c>
       <c r="OG2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="OJ2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="OL2" t="n">
         <v>0.11</v>
@@ -6813,61 +6628,61 @@
         <v>0.11</v>
       </c>
       <c r="SG2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SH2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SI2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SJ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SK2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SL2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SM2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SN2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SO2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SP2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SQ2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SR2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SS2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="ST2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SU2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SV2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SW2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SX2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SY2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="SZ2" t="n">
         <v>0.1</v>
@@ -7029,13 +6844,13 @@
         <v>0.1</v>
       </c>
       <c r="VA2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="VB2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="VC2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="VD2" t="n">
         <v>0.09</v>
@@ -7389,76 +7204,76 @@
         <v>0.09</v>
       </c>
       <c r="ZQ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ZR2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ZS2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ZT2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ZU2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ZV2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ZW2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ZX2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ZY2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="ZZ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAA2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAB2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAC2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAD2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAE2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAF2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAG2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAH2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAI2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAJ2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAK2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAL2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAM2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAN2" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AAO2" t="n">
         <v>0.08</v>
@@ -7548,76 +7363,76 @@
         <v>0.08</v>
       </c>
       <c r="ABR2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ABS2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ABT2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ABU2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ABV2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ABW2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ABX2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ABY2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ABZ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACA2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACB2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACC2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACD2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACE2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACF2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACG2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACH2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACI2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACJ2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACK2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACL2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACM2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACN2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACO2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="ACP2" t="n">
         <v>0.07000000000000001</v>
@@ -7839,85 +7654,85 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AFK2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFL2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFM2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFN2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFO2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFP2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFQ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFR2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFS2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFT2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFU2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFV2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFW2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFX2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFY2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AFZ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGA2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGB2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGC2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGD2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGE2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGF2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGG2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGH2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGI2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGJ2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGK2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AGL2" t="n">
         <v>0.06</v>
@@ -8037,207 +7852,96 @@
         <v>0.06</v>
       </c>
       <c r="AHY2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AHZ2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AIA2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AIB2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AIC2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AID2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AIE2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AIF2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AIG2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AIH2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AII2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AIJ2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AIK2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AIL2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AIM2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AIN2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AIO2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AIP2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AIQ2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AIR2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AIS2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AIT2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AIU2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AIV2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AIW2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AIX2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AIY2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AIZ2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJA2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJB2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AJC2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AJD2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AJE2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AJF2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AJG2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AJH2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AJI2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJJ2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJK2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJL2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJM2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJN2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJO2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJP2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJQ2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJR2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJS2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJT2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJU2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJV2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJW2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJX2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJY2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AJZ2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AKA2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AKB2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AKC2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AKD2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AKE2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AKF2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AKG2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AKH2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AKI2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AKJ2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AKK2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AKL2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AKM2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AKN2" t="n">
         <v>0.05</v>
       </c>
     </row>
